--- a/ANF.xlsx
+++ b/ANF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5616F460-353B-4DAF-B0AF-7D115705ADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4F5C5-F4FA-433A-8962-DD56AEB107E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{5386E427-DDBF-4556-BEE6-790EAB42F0A7}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{5386E427-DDBF-4556-BEE6-790EAB42F0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <author>Oscar Settje</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{7A57E5A5-AE80-48AB-8AE9-90309851DB03}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{AF008465-DB72-4CDE-AD76-9D03284A8A1F}">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="315">
   <si>
     <t>Abercrombie &amp; Fitch</t>
   </si>
@@ -131,18 +131,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
-  </si>
-  <si>
     <t>Q124</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
     <t>Q424</t>
   </si>
   <si>
-    <t>FY18</t>
-  </si>
-  <si>
     <t>FY19</t>
   </si>
   <si>
@@ -1023,6 +1008,42 @@
   </si>
   <si>
     <t>Other Current Liabilities</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>Outlook: FY25</t>
+  </si>
+  <si>
+    <t>Rev Growth 3-6%, OM 12,5 -13,5%</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1405,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1494,6 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,7 +1528,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1843,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC40C0-B144-4655-82AF-8123A26C51E9}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,57 +1887,57 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>91.5</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
-        <v>50.372689000000001</v>
+      <c r="I3" s="7">
+        <v>49.213999999999999</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="2">
         <f>I2*I3</f>
-        <v>4609.1010434999998</v>
+        <v>4786.0614999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="2">
-        <f>772.727+116.221</f>
-        <v>888.94799999999998</v>
+        <f>510.563+97.006</f>
+        <v>607.56899999999996</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1926,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1935,51 +1957,51 @@
       </c>
       <c r="I7" s="2">
         <f>I4+I6-I5</f>
-        <v>3720.1530435</v>
+        <v>4178.4925000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="27">
         <f>+Model!H11/Model!H17</f>
         <v>0.51360613206299255</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="22">
         <v>0.48599999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -1991,67 +2013,77 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2064,13 +2096,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2C5BFC-961F-4D88-9AA3-E79ECCFC9F4B}">
-  <dimension ref="A1:AH248"/>
+  <dimension ref="A1:AL248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,12 +2111,12 @@
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
@@ -2098,43 +2130,58 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V2" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2145,35 +2192,39 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="6">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6">
         <f>270+49</f>
         <v>319</v>
       </c>
-      <c r="M3" s="6">
+      <c r="Q3" s="6">
         <f>256+52</f>
         <v>308</v>
       </c>
-      <c r="N3" s="6">
+      <c r="R3" s="6">
         <f>190+48</f>
         <v>238</v>
       </c>
-      <c r="O3" s="6">
+      <c r="S3" s="6">
         <v>224</v>
       </c>
-      <c r="P3" s="6">
+      <c r="T3" s="6">
         <f>180+53</f>
         <v>233</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="U3" s="6">
         <v>247</v>
       </c>
-      <c r="R3" s="6">
+      <c r="V3" s="6">
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2184,35 +2235,39 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6">
         <f>393+149</f>
         <v>542</v>
       </c>
-      <c r="M4" s="6">
+      <c r="Q4" s="6">
         <f>391+155</f>
         <v>546</v>
       </c>
-      <c r="N4" s="6">
+      <c r="R4" s="6">
         <f>347+150</f>
         <v>497</v>
       </c>
-      <c r="O4" s="6">
+      <c r="S4" s="6">
         <v>505</v>
       </c>
-      <c r="P4" s="6">
+      <c r="T4" s="6">
         <f>380+149</f>
         <v>529</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="U4" s="6">
         <v>518</v>
       </c>
-      <c r="R4" s="6">
+      <c r="V4" s="6">
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2223,38 +2278,42 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="25">
-        <f>L11/L3</f>
-        <v>4.5064921630094039</v>
-      </c>
-      <c r="M5" s="25">
-        <f>M11/M3</f>
-        <v>4.7550616883116881</v>
-      </c>
-      <c r="N5" s="25">
-        <f>N11/N3</f>
-        <v>5.4245168067226892</v>
-      </c>
-      <c r="O5" s="25">
-        <f>O11/O3</f>
-        <v>6.9856651785714288</v>
-      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="25">
         <f>P11/P3</f>
+        <v>4.5064921630094039</v>
+      </c>
+      <c r="Q5" s="25">
+        <f>Q11/Q3</f>
+        <v>4.7550616883116881</v>
+      </c>
+      <c r="R5" s="25">
+        <f>R11/R3</f>
+        <v>5.4245168067226892</v>
+      </c>
+      <c r="S5" s="25">
+        <f>S11/S3</f>
+        <v>6.9856651785714288</v>
+      </c>
+      <c r="T5" s="25">
+        <f>T11/T3</f>
         <v>7.4457768240343345</v>
       </c>
-      <c r="Q5" s="25">
-        <f>+Q13/Q3</f>
+      <c r="U5" s="25">
+        <f>+U13/U3</f>
         <v>3.5654834008097169</v>
       </c>
-      <c r="R5" s="25">
-        <f>+R13/R3</f>
+      <c r="V5" s="25">
+        <f>+V13/V3</f>
         <v>3.678322302158274</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2265,39 +2324,43 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="25">
-        <f>L14/L4</f>
-        <v>3.9714723247232473</v>
-      </c>
-      <c r="M6" s="25">
-        <f>M14/M4</f>
-        <v>3.9533223443223444</v>
-      </c>
-      <c r="N6" s="25">
-        <f>N14/N4</f>
-        <v>3.6908430583501004</v>
-      </c>
-      <c r="O6" s="25">
-        <f>O14/O4</f>
-        <v>4.2534237623762374</v>
-      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="25">
         <f>P14/P4</f>
+        <v>3.9714723247232473</v>
+      </c>
+      <c r="Q6" s="25">
+        <f>Q14/Q4</f>
+        <v>3.9533223443223444</v>
+      </c>
+      <c r="R6" s="25">
+        <f>R14/R4</f>
+        <v>3.6908430583501004</v>
+      </c>
+      <c r="S6" s="25">
+        <f>S14/S4</f>
+        <v>4.2534237623762374</v>
+      </c>
+      <c r="T6" s="25">
+        <f>T14/T4</f>
         <v>3.7105576559546312</v>
       </c>
-      <c r="Q6" s="25">
-        <f>+Q16/Q4</f>
+      <c r="U6" s="25">
+        <f>+U16/U4</f>
         <v>2.809447297297297</v>
       </c>
-      <c r="R6" s="25">
-        <f>+R16/R4</f>
+      <c r="V6" s="25">
+        <f>+V16/V4</f>
         <v>3.276921917808219</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7">
@@ -2319,20 +2382,22 @@
       <c r="J8" s="7">
         <v>1319.72</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7">
+        <v>874.80399999999997</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7">
-        <v>4027.5140000000001</v>
-      </c>
+      <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="7">
+        <v>4027.5140000000001</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -2345,11 +2410,15 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7">
@@ -2371,20 +2440,22 @@
       <c r="J9" s="7">
         <v>224.46700000000001</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7">
+        <v>185.036</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7">
-        <v>770.51900000000001</v>
-      </c>
+      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="V9" s="7">
+        <v>770.51900000000001</v>
+      </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -2397,11 +2468,15 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -2423,20 +2498,22 @@
       <c r="J10" s="7">
         <v>40.729999999999997</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7">
+        <v>37.470999999999997</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7">
-        <v>150.554</v>
-      </c>
+      <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="V10" s="7">
+        <v>150.554</v>
+      </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -2449,11 +2526,15 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7">
         <v>436.04399999999998</v>
@@ -2479,32 +2560,34 @@
       <c r="J11" s="7">
         <v>772.67</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7">
+      <c r="K11" s="7">
+        <v>547.947</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7">
         <v>1437.5709999999999</v>
       </c>
-      <c r="M11" s="7">
+      <c r="Q11" s="7">
         <v>1464.559</v>
       </c>
-      <c r="N11" s="7">
+      <c r="R11" s="7">
         <v>1291.0350000000001</v>
       </c>
-      <c r="O11" s="7">
+      <c r="S11" s="7">
         <v>1564.789</v>
       </c>
-      <c r="P11" s="7">
+      <c r="T11" s="7">
         <v>1734.866</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="U11" s="7">
         <v>2201.6860000000001</v>
       </c>
-      <c r="R11" s="7">
+      <c r="V11" s="7">
         <v>2556.4340000000002</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
@@ -2517,11 +2600,15 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2536,18 +2623,18 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7">
-        <f>60%*Q11</f>
-        <v>1321.0116</v>
-      </c>
-      <c r="R12" s="7">
-        <f>+R11*60%</f>
-        <v>1533.8604</v>
-      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="U12" s="7">
+        <f>60%*U11</f>
+        <v>1321.0116</v>
+      </c>
+      <c r="V12" s="7">
+        <f>+V11*60%</f>
+        <v>1533.8604</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -2560,11 +2647,15 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2579,18 +2670,18 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7">
-        <f>40%*Q11</f>
-        <v>880.67440000000011</v>
-      </c>
-      <c r="R13" s="7">
-        <f>+R11*40%</f>
-        <v>1022.5736000000002</v>
-      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="U13" s="7">
+        <f>40%*U11</f>
+        <v>880.67440000000011</v>
+      </c>
+      <c r="V13" s="7">
+        <f>+V11*40%</f>
+        <v>1022.5736000000002</v>
+      </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
@@ -2603,11 +2694,15 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>399.95</v>
@@ -2633,32 +2728,34 @@
       <c r="J14" s="7">
         <v>812.24699999999996</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7">
+      <c r="K14" s="7">
+        <v>549.36400000000003</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
         <v>2152.538</v>
       </c>
-      <c r="M14" s="7">
+      <c r="Q14" s="7">
         <v>2158.5140000000001</v>
       </c>
-      <c r="N14" s="7">
+      <c r="R14" s="7">
         <v>1834.3489999999999</v>
       </c>
-      <c r="O14" s="7">
+      <c r="S14" s="7">
         <v>2147.9789999999998</v>
       </c>
-      <c r="P14" s="7">
+      <c r="T14" s="7">
         <v>1962.885</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="U14" s="7">
         <v>2078.991</v>
       </c>
-      <c r="R14" s="7">
+      <c r="V14" s="7">
         <v>2392.1529999999998</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2671,11 +2768,15 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2690,18 +2791,18 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <f>+Q14*30%</f>
-        <v>623.69729999999993</v>
-      </c>
-      <c r="R15" s="7">
-        <f>+R14*30%</f>
-        <v>717.64589999999987</v>
-      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="U15" s="7">
+        <f>+U14*30%</f>
+        <v>623.69729999999993</v>
+      </c>
+      <c r="V15" s="7">
+        <f>+V14*30%</f>
+        <v>717.64589999999987</v>
+      </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
@@ -2714,11 +2815,15 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2733,18 +2838,18 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7">
-        <f>+Q14*70%</f>
-        <v>1455.2936999999999</v>
-      </c>
-      <c r="R16" s="7">
-        <f>+R14*70%</f>
-        <v>1674.5070999999998</v>
-      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="U16" s="7">
+        <f>+U14*70%</f>
+        <v>1455.2936999999999</v>
+      </c>
+      <c r="V16" s="7">
+        <f>+V14*70%</f>
+        <v>1674.5070999999998</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -2757,10 +2862,14 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:I17" si="0">C11+C14</f>
@@ -2792,38 +2901,44 @@
       <c r="J17" s="8">
         <v>1584.9169999999999</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8">
-        <f t="shared" ref="L17:P17" si="1">L11+L14</f>
+      <c r="K17" s="8">
+        <v>1097.3109999999999</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8">
+        <f t="shared" ref="P17:T17" si="1">P11+P14</f>
         <v>3590.1089999999999</v>
       </c>
-      <c r="M17" s="8">
+      <c r="Q17" s="8">
         <f t="shared" si="1"/>
         <v>3623.0730000000003</v>
       </c>
-      <c r="N17" s="8">
+      <c r="R17" s="8">
         <f t="shared" si="1"/>
         <v>3125.384</v>
       </c>
-      <c r="O17" s="8">
+      <c r="S17" s="8">
         <f t="shared" si="1"/>
         <v>3712.768</v>
       </c>
-      <c r="P17" s="8">
+      <c r="T17" s="8">
         <f t="shared" si="1"/>
         <v>3697.7510000000002</v>
       </c>
-      <c r="Q17" s="8">
-        <f>Q11+Q14</f>
+      <c r="U17" s="8">
+        <f>U11+U14</f>
         <v>4280.6769999999997</v>
       </c>
-      <c r="R17" s="8">
+      <c r="V17" s="8">
         <v>4948.5870000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>326.2</v>
@@ -2849,32 +2964,38 @@
       <c r="J18" s="7">
         <v>610.90700000000004</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7">
+      <c r="K18" s="7">
+        <v>417.13299999999998</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
         <v>1430.193</v>
       </c>
-      <c r="M18" s="7">
+      <c r="Q18" s="7">
         <v>1472.155</v>
       </c>
-      <c r="N18" s="7">
+      <c r="R18" s="7">
         <v>1234.1790000000001</v>
       </c>
-      <c r="O18" s="7">
+      <c r="S18" s="7">
         <v>1400.7729999999999</v>
       </c>
-      <c r="P18" s="7">
+      <c r="T18" s="7">
         <v>1593.213</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="U18" s="7">
         <v>1587.2650000000001</v>
       </c>
-      <c r="R18" s="7">
+      <c r="V18" s="7">
         <v>1773.9259999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" ref="C19:F19" si="2">C17-C18</f>
@@ -2897,7 +3018,7 @@
         <v>677.45699999999999</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:J19" si="3">H17-H18</f>
+        <f t="shared" ref="H19:K19" si="3">H17-H18</f>
         <v>736.26200000000017</v>
       </c>
       <c r="I19" s="7">
@@ -2908,40 +3029,47 @@
         <f t="shared" si="3"/>
         <v>974.00999999999988</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7">
-        <f t="shared" ref="L19" si="4">L17-L18</f>
+      <c r="K19" s="7">
+        <f t="shared" si="3"/>
+        <v>680.17799999999988</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
+        <f t="shared" ref="P19" si="4">P17-P18</f>
         <v>2159.9160000000002</v>
       </c>
-      <c r="M19" s="7">
-        <f t="shared" ref="M19" si="5">M17-M18</f>
+      <c r="Q19" s="7">
+        <f t="shared" ref="Q19" si="5">Q17-Q18</f>
         <v>2150.9180000000006</v>
       </c>
-      <c r="N19" s="7">
-        <f t="shared" ref="N19" si="6">N17-N18</f>
+      <c r="R19" s="7">
+        <f t="shared" ref="R19" si="6">R17-R18</f>
         <v>1891.2049999999999</v>
       </c>
-      <c r="O19" s="7">
-        <f t="shared" ref="O19" si="7">O17-O18</f>
+      <c r="S19" s="7">
+        <f t="shared" ref="S19" si="7">S17-S18</f>
         <v>2311.9949999999999</v>
       </c>
-      <c r="P19" s="7">
-        <f t="shared" ref="P19" si="8">P17-P18</f>
+      <c r="T19" s="7">
+        <f t="shared" ref="T19" si="8">T17-T18</f>
         <v>2104.5380000000005</v>
       </c>
-      <c r="Q19" s="7">
-        <f t="shared" ref="Q19" si="9">Q17-Q18</f>
+      <c r="U19" s="7">
+        <f t="shared" ref="U19" si="9">U17-U18</f>
         <v>2693.4119999999994</v>
       </c>
-      <c r="R19" s="7">
-        <f t="shared" ref="R19" si="10">R17-R18</f>
+      <c r="V19" s="7">
+        <f t="shared" ref="V19" si="10">V17-V18</f>
         <v>3174.6610000000005</v>
       </c>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7">
         <v>336.04899999999998</v>
@@ -2967,32 +3095,38 @@
       <c r="J20" s="7">
         <v>526.423</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7">
+      <c r="K20" s="7">
+        <v>399.93700000000001</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
         <v>1536.2159999999999</v>
       </c>
-      <c r="M20" s="7">
+      <c r="Q20" s="7">
         <v>1551.2429999999999</v>
       </c>
-      <c r="N20" s="7">
+      <c r="R20" s="7">
         <v>1391.5840000000001</v>
       </c>
-      <c r="O20" s="7">
+      <c r="S20" s="7">
         <v>1440.423</v>
       </c>
-      <c r="P20" s="7">
+      <c r="T20" s="7">
         <v>1496.962</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="U20" s="7">
         <v>1571.7370000000001</v>
       </c>
-      <c r="R20" s="7">
+      <c r="V20" s="7">
         <v>1689.9880000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>142.631</v>
@@ -3018,32 +3152,38 @@
       <c r="J21" s="7">
         <v>194.54400000000001</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7">
+      <c r="K21" s="7">
+        <v>174.92500000000001</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7">
         <v>484.863</v>
       </c>
-      <c r="M21" s="7">
+      <c r="Q21" s="7">
         <v>464.61500000000001</v>
       </c>
-      <c r="N21" s="7">
+      <c r="R21" s="7">
         <v>463.84300000000002</v>
       </c>
-      <c r="O21" s="7">
+      <c r="S21" s="7">
         <v>536.81500000000005</v>
       </c>
-      <c r="P21" s="7">
+      <c r="T21" s="7">
         <v>517.60199999999998</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="U21" s="7">
         <v>642.87699999999995</v>
       </c>
-      <c r="R21" s="7">
+      <c r="V21" s="7">
         <v>750.48500000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>2.8940000000000001</v>
@@ -3069,35 +3209,41 @@
       <c r="J22" s="7">
         <v>3.0209999999999999</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7">
+      <c r="K22" s="7">
+        <v>-3.7829999999999999</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7">
         <f>-5.806-11.58+5.915</f>
         <v>-11.471</v>
       </c>
-      <c r="M22" s="7">
+      <c r="Q22" s="7">
         <f>-47.257-19.135+1.4</f>
         <v>-64.99199999999999</v>
       </c>
-      <c r="N22" s="7">
+      <c r="R22" s="7">
         <f>11.636-72.937+5.054</f>
         <v>-56.247</v>
       </c>
-      <c r="O22" s="7">
+      <c r="S22" s="7">
         <v>8.327</v>
       </c>
-      <c r="P22" s="7">
+      <c r="T22" s="7">
         <v>2.6739999999999999</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="U22" s="7">
         <v>5.8730000000000002</v>
       </c>
-      <c r="R22" s="7">
+      <c r="V22" s="7">
         <v>6.6319999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7">
         <f>C19-C20-C21+C22</f>
@@ -3120,7 +3266,7 @@
         <v>129.84900000000002</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:J23" si="12">H19-H20-H21+H22</f>
+        <f t="shared" ref="H23:K23" si="12">H19-H20-H21+H22</f>
         <v>175.62500000000017</v>
       </c>
       <c r="I23" s="7">
@@ -3131,39 +3277,46 @@
         <f t="shared" si="12"/>
         <v>256.06399999999985</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7">
-        <f t="shared" ref="L23:P23" si="13">L19-SUM(L20:L21)+L22</f>
+      <c r="K23" s="7">
+        <f t="shared" si="12"/>
+        <v>101.53299999999986</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
+        <f t="shared" ref="P23:T23" si="13">P19-SUM(P20:P21)+P22</f>
         <v>127.36600000000021</v>
       </c>
-      <c r="M23" s="7">
+      <c r="Q23" s="7">
         <f t="shared" si="13"/>
         <v>70.068000000000637</v>
       </c>
-      <c r="N23" s="7">
+      <c r="R23" s="7">
         <f t="shared" si="13"/>
         <v>-20.469000000000207</v>
       </c>
-      <c r="O23" s="7">
+      <c r="S23" s="7">
         <f t="shared" si="13"/>
         <v>343.08399999999983</v>
       </c>
-      <c r="P23" s="7">
+      <c r="T23" s="7">
         <f t="shared" si="13"/>
         <v>92.648000000000621</v>
       </c>
-      <c r="Q23" s="7">
-        <f>Q19-SUM(Q20:Q21)+Q22</f>
+      <c r="U23" s="7">
+        <f>U19-SUM(U20:U21)+U22</f>
         <v>484.67099999999931</v>
       </c>
-      <c r="R23" s="7">
-        <f t="shared" ref="R23" si="14">R19-SUM(R20:R21)+R22</f>
+      <c r="V23" s="7">
+        <f t="shared" ref="V23" si="14">V19-SUM(V20:V21)+V22</f>
         <v>740.8200000000005</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>7.4580000000000002</v>
@@ -3189,32 +3342,38 @@
       <c r="J24" s="7">
         <v>0.53900000000000003</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7">
+      <c r="K24" s="7">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
         <v>10.999000000000001</v>
       </c>
-      <c r="M24" s="7">
+      <c r="Q24" s="7">
         <v>7.7370000000000001</v>
       </c>
-      <c r="N24" s="7">
+      <c r="R24" s="7">
         <v>28.274000000000001</v>
       </c>
-      <c r="O24" s="7">
+      <c r="S24" s="7">
         <v>37.957999999999998</v>
       </c>
-      <c r="P24" s="7">
+      <c r="T24" s="7">
         <v>30.236000000000001</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="U24" s="7">
         <v>30.352</v>
       </c>
-      <c r="R24" s="7">
+      <c r="V24" s="7">
         <v>12.077</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7">
         <v>4.0149999999999997</v>
@@ -3240,32 +3399,38 @@
       <c r="J25" s="7">
         <v>9.4369999999999994</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
+      <c r="K25" s="7">
+        <v>7.444</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
         <v>3.8479999999999999</v>
       </c>
-      <c r="P25" s="7">
+      <c r="T25" s="7">
         <v>4.6040000000000001</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="U25" s="7">
         <v>29.98</v>
       </c>
-      <c r="R25" s="7">
+      <c r="V25" s="7">
         <v>39.933999999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <f>C23-C24+C25</f>
@@ -3288,7 +3453,7 @@
         <v>134.85200000000003</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" ref="H26:J26" si="16">H23-H24+H25</f>
+        <f t="shared" ref="H26:K26" si="16">H23-H24+H25</f>
         <v>180.82800000000017</v>
       </c>
       <c r="I26" s="7">
@@ -3299,39 +3464,46 @@
         <f t="shared" si="16"/>
         <v>264.96199999999988</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7">
-        <f t="shared" ref="L26:O26" si="17">L23-L24+L25</f>
+      <c r="K26" s="7">
+        <f t="shared" si="16"/>
+        <v>108.31599999999986</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7">
+        <f t="shared" ref="P26:S26" si="17">P23-P24+P25</f>
         <v>116.36700000000022</v>
       </c>
-      <c r="M26" s="7">
+      <c r="Q26" s="7">
         <f t="shared" si="17"/>
         <v>62.331000000000635</v>
       </c>
-      <c r="N26" s="7">
+      <c r="R26" s="7">
         <f t="shared" si="17"/>
         <v>-48.743000000000208</v>
       </c>
-      <c r="O26" s="7">
+      <c r="S26" s="7">
         <f t="shared" si="17"/>
         <v>308.97399999999988</v>
       </c>
-      <c r="P26" s="7">
-        <f>P23-P24+P25</f>
+      <c r="T26" s="7">
+        <f>T23-T24+T25</f>
         <v>67.016000000000616</v>
       </c>
-      <c r="Q26" s="7">
-        <f>Q23-Q24+Q25</f>
+      <c r="U26" s="7">
+        <f>U23-U24+U25</f>
         <v>484.29899999999935</v>
       </c>
-      <c r="R26" s="7">
-        <f t="shared" ref="R26" si="18">R23-R24+R25</f>
+      <c r="V26" s="7">
+        <f t="shared" ref="V26" si="18">V23-V24+V25</f>
         <v>768.67700000000048</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7">
         <v>12.718</v>
@@ -3357,32 +3529,38 @@
       <c r="J27" s="7">
         <v>75.266999999999996</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7">
+      <c r="K27" s="7">
+        <v>26.577000000000002</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7">
         <v>37.558999999999997</v>
       </c>
-      <c r="M27" s="7">
+      <c r="Q27" s="7">
         <v>17.370999999999999</v>
       </c>
-      <c r="N27" s="7">
+      <c r="R27" s="7">
         <v>60.210999999999999</v>
       </c>
-      <c r="O27" s="7">
+      <c r="S27" s="7">
         <v>38.908000000000001</v>
       </c>
-      <c r="P27" s="7">
+      <c r="T27" s="7">
         <v>56.631</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="U27" s="7">
         <v>148.886</v>
       </c>
-      <c r="R27" s="7">
+      <c r="V27" s="7">
         <v>194.661</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7">
         <f>C26-C27</f>
@@ -3405,7 +3583,7 @@
         <v>115.05800000000004</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28:J28" si="20">H26-H27</f>
+        <f t="shared" ref="H28:K28" si="20">H26-H27</f>
         <v>135.37900000000019</v>
       </c>
       <c r="I28" s="7">
@@ -3416,39 +3594,46 @@
         <f t="shared" si="20"/>
         <v>189.69499999999988</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7">
-        <f t="shared" ref="L28:R28" si="21">L26-L27</f>
+      <c r="K28" s="7">
+        <f t="shared" si="20"/>
+        <v>81.738999999999862</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7">
+        <f t="shared" ref="P28:V28" si="21">P26-P27</f>
         <v>78.80800000000022</v>
       </c>
-      <c r="M28" s="7">
+      <c r="Q28" s="7">
         <f t="shared" si="21"/>
         <v>44.960000000000633</v>
       </c>
-      <c r="N28" s="7">
+      <c r="R28" s="7">
         <f t="shared" si="21"/>
         <v>-108.95400000000021</v>
       </c>
-      <c r="O28" s="7">
+      <c r="S28" s="7">
         <f t="shared" si="21"/>
         <v>270.06599999999986</v>
       </c>
-      <c r="P28" s="7">
+      <c r="T28" s="7">
         <f t="shared" si="21"/>
         <v>10.385000000000616</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="U28" s="7">
         <f t="shared" si="21"/>
         <v>335.41299999999933</v>
       </c>
-      <c r="R28" s="7">
+      <c r="V28" s="7">
         <f t="shared" si="21"/>
         <v>574.01600000000053</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C29" s="7">
         <v>1.276</v>
@@ -3474,32 +3659,38 @@
       <c r="J29" s="7">
         <v>2.4689999999999999</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7">
+      <c r="K29" s="7">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7">
         <v>4.2670000000000003</v>
       </c>
-      <c r="M29" s="7">
+      <c r="Q29" s="7">
         <v>5.6020000000000003</v>
       </c>
-      <c r="N29" s="7">
+      <c r="R29" s="7">
         <v>5.0670000000000002</v>
       </c>
-      <c r="O29" s="7">
+      <c r="S29" s="7">
         <v>7.056</v>
       </c>
-      <c r="P29" s="7">
+      <c r="T29" s="7">
         <v>7.569</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="U29" s="7">
         <v>7.29</v>
       </c>
-      <c r="R29" s="7">
+      <c r="V29" s="7">
         <v>7.7930000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" ref="C30:F30" si="22">C28-C29</f>
@@ -3522,7 +3713,7 @@
         <v>113.83000000000004</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" ref="H30:J30" si="23">H28-H29</f>
+        <f t="shared" ref="H30:K30" si="23">H28-H29</f>
         <v>133.16800000000018</v>
       </c>
       <c r="I30" s="7">
@@ -3533,37 +3724,44 @@
         <f t="shared" si="23"/>
         <v>187.22599999999989</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7">
-        <f t="shared" ref="L30:O30" si="24">L28-L29</f>
+      <c r="K30" s="7">
+        <f t="shared" si="23"/>
+        <v>80.412999999999869</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7">
+        <f t="shared" ref="P30:S30" si="24">P28-P29</f>
         <v>74.541000000000224</v>
       </c>
-      <c r="M30" s="7">
+      <c r="Q30" s="7">
         <f t="shared" si="24"/>
         <v>39.358000000000629</v>
       </c>
-      <c r="N30" s="7">
+      <c r="R30" s="7">
         <f t="shared" si="24"/>
         <v>-114.02100000000021</v>
       </c>
-      <c r="O30" s="7">
+      <c r="S30" s="7">
         <f t="shared" si="24"/>
         <v>263.00999999999988</v>
       </c>
-      <c r="P30" s="7">
-        <f>P28-P29</f>
+      <c r="T30" s="7">
+        <f>T28-T29</f>
         <v>2.8160000000006162</v>
       </c>
-      <c r="Q30" s="7">
-        <f>Q28-Q29</f>
+      <c r="U30" s="7">
+        <f>U28-U29</f>
         <v>328.12299999999931</v>
       </c>
-      <c r="R30" s="7">
-        <f>R28-R29</f>
+      <c r="V30" s="7">
+        <f>V28-V29</f>
         <v>566.22300000000052</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -3580,76 +3778,87 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="79">
-        <f t="shared" ref="C32:J32" si="25">C30/C33</f>
+        <v>35</v>
+      </c>
+      <c r="C32" s="75">
+        <f t="shared" ref="C32:K32" si="25">C30/C33</f>
         <v>0.33426796304514361</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="75">
         <f t="shared" si="25"/>
         <v>1.1305989428083159</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="75">
         <f t="shared" si="25"/>
         <v>1.9050174243624289</v>
       </c>
-      <c r="F32" s="79">
+      <c r="F32" s="75">
         <f t="shared" si="25"/>
         <v>3.1339029648529424</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G32" s="75">
         <f t="shared" si="25"/>
         <v>2.2366533707975562</v>
       </c>
-      <c r="H32" s="79">
+      <c r="H32" s="75">
         <f t="shared" si="25"/>
         <v>2.5986028177809035</v>
       </c>
-      <c r="I32" s="79">
+      <c r="I32" s="75">
         <f t="shared" si="25"/>
         <v>2.5903122607995899</v>
       </c>
-      <c r="J32" s="79">
+      <c r="J32" s="75">
         <f t="shared" si="25"/>
         <v>3.7247786730329233</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="79">
-        <f t="shared" ref="L32:R32" si="26">L30/L33</f>
+      <c r="K32" s="75">
+        <f t="shared" si="25"/>
+        <v>1.6339456252285909</v>
+      </c>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="75">
+        <f t="shared" ref="P32:V32" si="26">P30/P33</f>
         <v>1.1067706013363063</v>
       </c>
-      <c r="M32" s="79">
+      <c r="Q32" s="75">
         <f t="shared" si="26"/>
         <v>0.61088346681567995</v>
       </c>
-      <c r="N32" s="79">
+      <c r="R32" s="75">
         <f t="shared" si="26"/>
         <v>-1.8228485555786511</v>
       </c>
-      <c r="O32" s="79">
+      <c r="S32" s="75">
         <f t="shared" si="26"/>
         <v>4.4131416010873012</v>
       </c>
-      <c r="P32" s="79">
+      <c r="T32" s="75">
         <f t="shared" si="26"/>
         <v>5.5976305484338483E-2</v>
       </c>
-      <c r="Q32" s="79">
+      <c r="U32" s="75">
         <f t="shared" si="26"/>
         <v>6.5298109452736179</v>
       </c>
-      <c r="R32" s="79">
+      <c r="V32" s="75">
         <f t="shared" si="26"/>
         <v>11.137571549401061</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33" s="7">
         <v>49.573999999999998</v>
@@ -3675,30 +3884,36 @@
       <c r="J33" s="7">
         <v>50.265000000000001</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7">
+      <c r="K33" s="7">
+        <v>49.213999999999999</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7">
         <v>67.349999999999994</v>
       </c>
-      <c r="M33" s="7">
+      <c r="Q33" s="7">
         <v>64.427999999999997</v>
       </c>
-      <c r="N33" s="7">
+      <c r="R33" s="7">
         <v>62.551000000000002</v>
       </c>
-      <c r="O33" s="7">
+      <c r="S33" s="7">
         <v>59.597000000000001</v>
       </c>
-      <c r="P33" s="7">
+      <c r="T33" s="7">
         <v>50.307000000000002</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="U33" s="7">
         <v>50.25</v>
       </c>
-      <c r="R33" s="7">
+      <c r="V33" s="7">
         <v>50.838999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -3715,10 +3930,14 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -3730,34 +3949,38 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="20">
-        <f>M3/L3-1</f>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="20">
+        <f t="shared" ref="Q35:V35" si="27">Q3/P3-1</f>
         <v>-3.4482758620689613E-2</v>
       </c>
-      <c r="N35" s="20">
-        <f>N3/M3-1</f>
+      <c r="R35" s="20">
+        <f t="shared" si="27"/>
         <v>-0.22727272727272729</v>
       </c>
-      <c r="O35" s="20">
-        <f>O3/N3-1</f>
+      <c r="S35" s="20">
+        <f t="shared" si="27"/>
         <v>-5.8823529411764719E-2</v>
       </c>
-      <c r="P35" s="20">
-        <f>P3/O3-1</f>
+      <c r="T35" s="20">
+        <f t="shared" si="27"/>
         <v>4.0178571428571397E-2</v>
       </c>
-      <c r="Q35" s="20">
-        <f>Q3/P3-1</f>
+      <c r="U35" s="20">
+        <f t="shared" si="27"/>
         <v>6.0085836909871349E-2</v>
       </c>
-      <c r="R35" s="20">
-        <f>R3/Q3-1</f>
+      <c r="V35" s="20">
+        <f t="shared" si="27"/>
         <v>0.12550607287449389</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3769,449 +3992,502 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="20">
-        <f>M4/L4-1</f>
-        <v>7.3800738007379074E-3</v>
-      </c>
-      <c r="N36" s="20">
-        <f>N4/M4-1</f>
-        <v>-8.9743589743589758E-2</v>
-      </c>
-      <c r="O36" s="20">
-        <f>O4/N4-1</f>
-        <v>1.6096579476861272E-2</v>
-      </c>
-      <c r="P36" s="20">
-        <f>P4/O4-1</f>
-        <v>4.7524752475247567E-2</v>
-      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
       <c r="Q36" s="20">
         <f>Q4/P4-1</f>
+        <v>7.3800738007379074E-3</v>
+      </c>
+      <c r="R36" s="20">
+        <f>R4/Q4-1</f>
+        <v>-8.9743589743589758E-2</v>
+      </c>
+      <c r="S36" s="20">
+        <f>S4/R4-1</f>
+        <v>1.6096579476861272E-2</v>
+      </c>
+      <c r="T36" s="20">
+        <f>T4/S4-1</f>
+        <v>4.7524752475247567E-2</v>
+      </c>
+      <c r="U36" s="20">
+        <f>U4/T4-1</f>
         <v>-2.0793950850661602E-2</v>
       </c>
-      <c r="R36" s="20">
-        <f>+R14/Q14-1</f>
+      <c r="V36" s="20">
+        <f>+V14/U14-1</f>
         <v>0.15063172471646102</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20">
-        <f t="shared" ref="G37:I37" si="27">+G11/C11-1</f>
+        <f t="shared" ref="G37:I37" si="28">+G11/C11-1</f>
         <v>0.31067736283494329</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.25870359684554733</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.14990469722197886</v>
       </c>
       <c r="J37" s="20">
         <f>+J11/F11-1</f>
         <v>2.3128880579128985E-2</v>
       </c>
-      <c r="K37" s="7"/>
+      <c r="K37" s="20">
+        <f>+K11/G11-1</f>
+        <v>-4.1234407616274726E-2</v>
+      </c>
       <c r="L37" s="20"/>
-      <c r="M37" s="20">
-        <f t="shared" ref="M37:Q37" si="28">+M11/L11-1</f>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20">
+        <f t="shared" ref="Q37:U37" si="29">+Q11/P11-1</f>
         <v>1.877333363013034E-2</v>
       </c>
-      <c r="N37" s="20">
-        <f t="shared" si="28"/>
+      <c r="R37" s="20">
+        <f t="shared" si="29"/>
         <v>-0.11848208231966062</v>
       </c>
-      <c r="O37" s="20">
-        <f t="shared" si="28"/>
+      <c r="S37" s="20">
+        <f t="shared" si="29"/>
         <v>0.21204227615827609</v>
       </c>
-      <c r="P37" s="20">
-        <f t="shared" si="28"/>
+      <c r="T37" s="20">
+        <f t="shared" si="29"/>
         <v>0.1086900534193429</v>
       </c>
-      <c r="Q37" s="20">
-        <f t="shared" si="28"/>
+      <c r="U37" s="20">
+        <f t="shared" si="29"/>
         <v>0.26908130080363568</v>
       </c>
-      <c r="R37" s="20">
-        <f>+R11/Q11-1</f>
+      <c r="V37" s="20">
+        <f>+V11/U11-1</f>
         <v>0.16112561010062287</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20">
-        <f t="shared" ref="G38:I38" si="29">+G14/C14-1</f>
+        <f t="shared" ref="G38:I38" si="30">+G14/C14-1</f>
         <v>0.12318289786223269</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.16698756331537723</v>
       </c>
       <c r="I38" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.13844620534968333</v>
       </c>
       <c r="J38" s="20">
         <f>+J14/F14-1</f>
         <v>0.16417133913522064</v>
       </c>
-      <c r="K38" s="7"/>
+      <c r="K38" s="20">
+        <f>+K14/G14-1</f>
+        <v>0.22293679891900808</v>
+      </c>
       <c r="L38" s="20"/>
-      <c r="M38" s="20">
-        <f t="shared" ref="M38:Q38" si="30">+M14/L14-1</f>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20">
+        <f t="shared" ref="Q38:U38" si="31">+Q14/P14-1</f>
         <v>2.7762576084604529E-3</v>
       </c>
-      <c r="N38" s="20">
-        <f t="shared" si="30"/>
+      <c r="R38" s="20">
+        <f t="shared" si="31"/>
         <v>-0.15017970696506955</v>
       </c>
-      <c r="O38" s="20">
-        <f t="shared" si="30"/>
+      <c r="S38" s="20">
+        <f t="shared" si="31"/>
         <v>0.17097618828260042</v>
       </c>
-      <c r="P38" s="20">
-        <f t="shared" si="30"/>
+      <c r="T38" s="20">
+        <f t="shared" si="31"/>
         <v>-8.6171233517645995E-2</v>
       </c>
-      <c r="Q38" s="20">
-        <f t="shared" si="30"/>
+      <c r="U38" s="20">
+        <f t="shared" si="31"/>
         <v>5.9150688909436866E-2</v>
       </c>
-      <c r="R38" s="20">
-        <f>+R14/Q14-1</f>
+      <c r="V38" s="20">
+        <f>+V14/U14-1</f>
         <v>0.15063172471646102</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>306</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="20">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="80">
         <f>G17/C17-1</f>
         <v>0.22097766251910911</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="80">
         <f>H17/D17-1</f>
         <v>0.21235907606284332</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="80">
         <f>I17/E17-1</f>
         <v>0.14438709201074174</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="80">
         <f>J17/F17-1</f>
         <v>9.0859222235146531E-2</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20">
-        <f t="shared" ref="M39:P39" si="31">M17/L17-1</f>
+      <c r="K39" s="80">
+        <f>K17/G17-1</f>
+        <v>7.5025716888893257E-2</v>
+      </c>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="80">
+        <f t="shared" ref="Q39:T39" si="32">Q17/P17-1</f>
         <v>9.1818939202126248E-3</v>
       </c>
-      <c r="N39" s="20">
-        <f t="shared" si="31"/>
+      <c r="R39" s="80">
+        <f t="shared" si="32"/>
         <v>-0.137366539399013</v>
       </c>
-      <c r="O39" s="20">
-        <f t="shared" si="31"/>
+      <c r="S39" s="80">
+        <f t="shared" si="32"/>
         <v>0.18793978595910144</v>
       </c>
-      <c r="P39" s="20">
-        <f t="shared" si="31"/>
+      <c r="T39" s="80">
+        <f t="shared" si="32"/>
         <v>-4.0446911845825051E-3</v>
       </c>
-      <c r="Q39" s="20">
-        <f>Q17/P17-1</f>
+      <c r="U39" s="80">
+        <f>U17/T17-1</f>
         <v>0.15764338918439869</v>
       </c>
-      <c r="R39" s="20">
-        <f>R17/Q17-1</f>
+      <c r="V39" s="80">
+        <f>V17/U17-1</f>
         <v>0.15602905802049549</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C40" s="20">
-        <f>C19/C17</f>
+        <f t="shared" ref="C40:J40" si="33">C19/C17</f>
         <v>0.60980581200343542</v>
       </c>
       <c r="D40" s="20">
-        <f>D19/D17</f>
+        <f t="shared" si="33"/>
         <v>0.6247748157097115</v>
       </c>
       <c r="E40" s="20">
-        <f>E19/E17</f>
+        <f t="shared" si="33"/>
         <v>0.6490428622408847</v>
       </c>
       <c r="F40" s="20">
-        <f>F19/F17</f>
+        <f t="shared" si="33"/>
         <v>0.62878697673010042</v>
       </c>
       <c r="G40" s="20">
-        <f>G19/G17</f>
+        <f t="shared" si="33"/>
         <v>0.66369852948380081</v>
       </c>
       <c r="H40" s="20">
-        <f>H19/H17</f>
+        <f t="shared" si="33"/>
         <v>0.64927590932419976</v>
       </c>
       <c r="I40" s="20">
-        <f>I19/I17</f>
+        <f t="shared" si="33"/>
         <v>0.65091325976082037</v>
       </c>
       <c r="J40" s="20">
-        <f>J19/J17</f>
+        <f t="shared" si="33"/>
         <v>0.61454953161585113</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="20">
-        <f>L19/L17</f>
+      <c r="K40" s="20">
+        <f t="shared" ref="K40" si="34">K19/K17</f>
+        <v>0.61985890964366519</v>
+      </c>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="20">
+        <f t="shared" ref="P40:V40" si="35">P19/P17</f>
         <v>0.60162964411386954</v>
       </c>
-      <c r="M40" s="20">
-        <f>M19/M17</f>
+      <c r="Q40" s="20">
+        <f t="shared" si="35"/>
         <v>0.59367227764938779</v>
       </c>
-      <c r="N40" s="20">
-        <f>N19/N17</f>
+      <c r="R40" s="20">
+        <f t="shared" si="35"/>
         <v>0.60511124393034577</v>
       </c>
-      <c r="O40" s="20">
-        <f>O19/O17</f>
+      <c r="S40" s="20">
+        <f t="shared" si="35"/>
         <v>0.6227146430910846</v>
       </c>
-      <c r="P40" s="20">
-        <f>P19/P17</f>
+      <c r="T40" s="20">
+        <f t="shared" si="35"/>
         <v>0.56913999888040068</v>
       </c>
-      <c r="Q40" s="20">
-        <f>Q19/Q17</f>
+      <c r="U40" s="20">
+        <f t="shared" si="35"/>
         <v>0.62920234346109261</v>
       </c>
-      <c r="R40" s="20">
-        <f>R19/R17</f>
+      <c r="V40" s="20">
+        <f t="shared" si="35"/>
         <v>0.64152878387305312</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C41" s="20">
-        <f>C23/C17</f>
+        <f t="shared" ref="C41:J41" si="36">C23/C17</f>
         <v>4.0679717797017623E-2</v>
       </c>
       <c r="D41" s="20">
-        <f>D23/D17</f>
+        <f t="shared" si="36"/>
         <v>9.6052258792210451E-2</v>
       </c>
       <c r="E41" s="20">
-        <f>E23/E17</f>
+        <f t="shared" si="36"/>
         <v>0.13064743461712133</v>
       </c>
       <c r="F41" s="20">
-        <f>F23/F17</f>
+        <f t="shared" si="36"/>
         <v>0.15334842491639172</v>
       </c>
       <c r="G41" s="20">
-        <f>G23/G17</f>
+        <f t="shared" si="36"/>
         <v>0.12721189736757027</v>
       </c>
       <c r="H41" s="20">
-        <f>H23/H17</f>
+        <f t="shared" si="36"/>
         <v>0.15487568498043178</v>
       </c>
       <c r="I41" s="20">
-        <f>I23/I17</f>
+        <f t="shared" si="36"/>
         <v>0.14829366582683046</v>
       </c>
       <c r="J41" s="20">
-        <f>J23/J17</f>
+        <f t="shared" si="36"/>
         <v>0.16156303453114571</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="20">
-        <f>L23/L17</f>
+      <c r="K41" s="20">
+        <f t="shared" ref="K41" si="37">K23/K17</f>
+        <v>9.2528918419663944E-2</v>
+      </c>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="20">
+        <f t="shared" ref="P41:V41" si="38">P23/P17</f>
         <v>3.5476917274656621E-2</v>
       </c>
-      <c r="M41" s="20">
-        <f>M23/M17</f>
+      <c r="Q41" s="20">
+        <f t="shared" si="38"/>
         <v>1.9339383998059279E-2</v>
       </c>
-      <c r="N41" s="20">
-        <f>N23/N17</f>
+      <c r="R41" s="20">
+        <f t="shared" si="38"/>
         <v>-6.5492752250604106E-3</v>
       </c>
-      <c r="O41" s="20">
-        <f>O23/O17</f>
+      <c r="S41" s="20">
+        <f t="shared" si="38"/>
         <v>9.2406527959732421E-2</v>
       </c>
-      <c r="P41" s="20">
-        <f>P23/P17</f>
+      <c r="T41" s="20">
+        <f t="shared" si="38"/>
         <v>2.5055229516536028E-2</v>
       </c>
-      <c r="Q41" s="20">
-        <f>Q23/Q17</f>
+      <c r="U41" s="20">
+        <f t="shared" si="38"/>
         <v>0.11322297851484692</v>
       </c>
-      <c r="R41" s="20">
-        <f>R23/R17</f>
+      <c r="V41" s="20">
+        <f t="shared" si="38"/>
         <v>0.14970333955935308</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C42" s="20">
-        <f>C30/C17</f>
+        <f t="shared" ref="C42:J42" si="39">C30/C17</f>
         <v>1.9821912597458774E-2</v>
       </c>
       <c r="D42" s="20">
-        <f>D30/D17</f>
+        <f t="shared" si="39"/>
         <v>6.0826753764653761E-2</v>
       </c>
       <c r="E42" s="20">
-        <f>E30/E17</f>
+        <f t="shared" si="39"/>
         <v>9.1071731140036694E-2</v>
       </c>
       <c r="F42" s="20">
-        <f>F30/F17</f>
+        <f t="shared" si="39"/>
         <v>0.10905515631764451</v>
       </c>
       <c r="G42" s="20">
-        <f>G30/G17</f>
+        <f t="shared" si="39"/>
         <v>0.11151822715115656</v>
       </c>
       <c r="H42" s="20">
-        <f>H30/H17</f>
+        <f t="shared" si="39"/>
         <v>0.11743479127387414</v>
       </c>
       <c r="I42" s="20">
-        <f>I30/I17</f>
+        <f t="shared" si="39"/>
         <v>0.10916684174741052</v>
       </c>
       <c r="J42" s="20">
-        <f>J30/J17</f>
+        <f t="shared" si="39"/>
         <v>0.11812984528527355</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="20">
-        <f>L30/L17</f>
+      <c r="K42" s="20">
+        <f t="shared" ref="K42" si="40">K30/K17</f>
+        <v>7.3281868130365843E-2</v>
+      </c>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="20">
+        <f t="shared" ref="P42:V42" si="41">P30/P17</f>
         <v>2.0762879344331946E-2</v>
       </c>
-      <c r="M42" s="20">
-        <f>M30/M17</f>
+      <c r="Q42" s="20">
+        <f t="shared" si="41"/>
         <v>1.0863154013181801E-2</v>
       </c>
-      <c r="N42" s="20">
-        <f>N30/N17</f>
+      <c r="R42" s="20">
+        <f t="shared" si="41"/>
         <v>-3.6482237062709803E-2</v>
       </c>
-      <c r="O42" s="20">
-        <f>O30/O17</f>
+      <c r="S42" s="20">
+        <f t="shared" si="41"/>
         <v>7.0839330655726368E-2</v>
       </c>
-      <c r="P42" s="20">
-        <f>P30/P17</f>
+      <c r="T42" s="20">
+        <f t="shared" si="41"/>
         <v>7.6154397632523555E-4</v>
       </c>
-      <c r="Q42" s="20">
-        <f>Q30/Q17</f>
+      <c r="U42" s="20">
+        <f t="shared" si="41"/>
         <v>7.6652127689148086E-2</v>
       </c>
-      <c r="R42" s="20">
-        <f>R30/R17</f>
+      <c r="V42" s="20">
+        <f t="shared" si="41"/>
         <v>0.11442114688495938</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C43" s="20">
-        <f>C27/C26</f>
+        <f t="shared" ref="C43:J43" si="42">C27/C26</f>
         <v>0.41609684279404618</v>
       </c>
       <c r="D43" s="20">
-        <f>D27/D26</f>
+        <f t="shared" si="42"/>
         <v>0.33820496929404442</v>
       </c>
       <c r="E43" s="20">
-        <f>E27/E26</f>
+        <f t="shared" si="42"/>
         <v>0.28844039636255064</v>
       </c>
       <c r="F43" s="20">
-        <f>F27/F26</f>
+        <f t="shared" si="42"/>
         <v>0.29229045861887204</v>
       </c>
       <c r="G43" s="20">
-        <f>G27/G26</f>
+        <f t="shared" si="42"/>
         <v>0.14678314003500131</v>
       </c>
       <c r="H43" s="20">
-        <f>H27/H26</f>
+        <f t="shared" si="42"/>
         <v>0.25133828831818056</v>
       </c>
       <c r="I43" s="20">
-        <f>I27/I26</f>
+        <f t="shared" si="42"/>
         <v>0.28801425418184734</v>
       </c>
       <c r="J43" s="20">
-        <f>J27/J26</f>
+        <f t="shared" si="42"/>
         <v>0.28406714925159093</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="20">
-        <f>L27/L26</f>
+      <c r="K43" s="20">
+        <f t="shared" ref="K43" si="43">K27/K26</f>
+        <v>0.24536541231212411</v>
+      </c>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="20">
+        <f t="shared" ref="P43:V43" si="44">P27/P26</f>
         <v>0.32276332637259642</v>
       </c>
-      <c r="M43" s="20">
-        <f>M27/M26</f>
+      <c r="Q43" s="20">
+        <f t="shared" si="44"/>
         <v>0.27868957661516452</v>
       </c>
-      <c r="N43" s="20">
-        <f>N27/N26</f>
+      <c r="R43" s="20">
+        <f t="shared" si="44"/>
         <v>-1.2352748086904732</v>
       </c>
-      <c r="O43" s="20">
-        <f>O27/O26</f>
+      <c r="S43" s="20">
+        <f t="shared" si="44"/>
         <v>0.12592645335853508</v>
       </c>
-      <c r="P43" s="20">
-        <f>P27/P26</f>
+      <c r="T43" s="20">
+        <f t="shared" si="44"/>
         <v>0.84503700608809063</v>
       </c>
-      <c r="Q43" s="20">
-        <f>Q27/Q26</f>
+      <c r="U43" s="20">
+        <f t="shared" si="44"/>
         <v>0.30742578448437885</v>
       </c>
-      <c r="R43" s="20">
-        <f>R27/R26</f>
+      <c r="V43" s="20">
+        <f t="shared" si="44"/>
         <v>0.25324160863405548</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -4228,10 +4504,14 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -4242,32 +4522,36 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="7">
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7">
         <v>723.13499999999999</v>
       </c>
-      <c r="M45" s="7">
+      <c r="Q45" s="7">
         <v>671.26700000000005</v>
       </c>
-      <c r="N45" s="7">
+      <c r="R45" s="7">
         <v>1104.8620000000001</v>
       </c>
-      <c r="O45" s="7">
+      <c r="S45" s="7">
         <v>823.13900000000001</v>
       </c>
-      <c r="P45" s="7">
+      <c r="T45" s="7">
         <v>517.60199999999998</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="U45" s="7">
         <v>900.88400000000001</v>
       </c>
-      <c r="R45" s="7">
+      <c r="V45" s="7">
         <f>772.727+116.221</f>
         <v>888.94799999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -4278,31 +4562,35 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="7">
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
         <v>73.111999999999995</v>
       </c>
-      <c r="M46" s="7">
+      <c r="Q46" s="7">
         <v>80.251000000000005</v>
       </c>
-      <c r="N46" s="7">
+      <c r="R46" s="7">
         <v>83.856999999999999</v>
       </c>
-      <c r="O46" s="7">
+      <c r="S46" s="7">
         <v>69.102000000000004</v>
       </c>
-      <c r="P46" s="7">
+      <c r="T46" s="7">
         <v>104.506</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="U46" s="7">
         <v>78.346000000000004</v>
       </c>
-      <c r="R46" s="7">
+      <c r="V46" s="7">
         <v>105.324</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -4313,31 +4601,35 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="7">
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7">
         <v>437.87900000000002</v>
       </c>
-      <c r="M47" s="7">
+      <c r="Q47" s="7">
         <v>434.32600000000002</v>
       </c>
-      <c r="N47" s="7">
+      <c r="R47" s="7">
         <v>404.053</v>
       </c>
-      <c r="O47" s="7">
+      <c r="S47" s="7">
         <v>525.86400000000003</v>
       </c>
-      <c r="P47" s="7">
+      <c r="T47" s="7">
         <v>505.62099999999998</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="U47" s="7">
         <v>469.46600000000001</v>
       </c>
-      <c r="R47" s="7">
+      <c r="V47" s="7">
         <v>575.005</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -4348,31 +4640,35 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="7">
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7">
         <v>101.824</v>
       </c>
-      <c r="M48" s="7">
+      <c r="Q48" s="7">
         <v>78.905000000000001</v>
       </c>
-      <c r="N48" s="7">
+      <c r="R48" s="7">
         <v>68.856999999999999</v>
       </c>
-      <c r="O48" s="7">
+      <c r="S48" s="7">
         <v>89.653999999999996</v>
       </c>
-      <c r="P48" s="7">
+      <c r="T48" s="7">
         <v>100.289</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="U48" s="7">
         <v>88.569000000000003</v>
       </c>
-      <c r="R48" s="7">
+      <c r="V48" s="7">
         <v>104.154</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -4383,38 +4679,42 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="7">
-        <f t="shared" ref="L49:P49" si="32">SUM(L45:L48)</f>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7">
+        <f t="shared" ref="P49:T49" si="45">SUM(P45:P48)</f>
         <v>1335.95</v>
       </c>
-      <c r="M49" s="7">
-        <f t="shared" si="32"/>
+      <c r="Q49" s="7">
+        <f t="shared" si="45"/>
         <v>1264.749</v>
       </c>
-      <c r="N49" s="7">
-        <f t="shared" si="32"/>
+      <c r="R49" s="7">
+        <f t="shared" si="45"/>
         <v>1661.6289999999999</v>
       </c>
-      <c r="O49" s="7">
-        <f t="shared" si="32"/>
+      <c r="S49" s="7">
+        <f t="shared" si="45"/>
         <v>1507.759</v>
       </c>
-      <c r="P49" s="7">
-        <f t="shared" si="32"/>
+      <c r="T49" s="7">
+        <f t="shared" si="45"/>
         <v>1228.0179999999998</v>
       </c>
-      <c r="Q49" s="7">
-        <f>SUM(Q45:Q48)</f>
+      <c r="U49" s="7">
+        <f>SUM(U45:U48)</f>
         <v>1537.2649999999999</v>
       </c>
-      <c r="R49" s="7">
-        <f>SUM(R45:R48)</f>
+      <c r="V49" s="7">
+        <f>SUM(V45:V48)</f>
         <v>1673.431</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -4425,31 +4725,35 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="7">
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7">
         <v>694.85500000000002</v>
       </c>
-      <c r="M50" s="7">
+      <c r="Q50" s="7">
         <v>665.29</v>
       </c>
-      <c r="N50" s="7">
+      <c r="R50" s="7">
         <v>550.58699999999999</v>
       </c>
-      <c r="O50" s="7">
+      <c r="S50" s="7">
         <v>508.33600000000001</v>
       </c>
-      <c r="P50" s="7">
+      <c r="T50" s="7">
         <v>551.58500000000004</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="U50" s="7">
         <v>538.03300000000002</v>
       </c>
-      <c r="R50" s="7">
+      <c r="V50" s="7">
         <v>575.77300000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -4460,31 +4764,35 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7">
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
         <v>1230.954</v>
       </c>
-      <c r="N51" s="7">
+      <c r="R51" s="7">
         <v>893.98900000000003</v>
       </c>
-      <c r="O51" s="7">
+      <c r="S51" s="7">
         <v>698.23099999999999</v>
       </c>
-      <c r="P51" s="7">
+      <c r="T51" s="7">
         <v>723.55</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="U51" s="7">
         <v>678.25599999999997</v>
       </c>
-      <c r="R51" s="7">
+      <c r="V51" s="7">
         <v>803.12099999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -4495,31 +4803,35 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="7">
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7">
         <v>354.78800000000001</v>
       </c>
-      <c r="M52" s="7">
+      <c r="Q52" s="7">
         <v>388.67200000000003</v>
       </c>
-      <c r="N52" s="7">
+      <c r="R52" s="7">
         <v>208.697</v>
       </c>
-      <c r="O52" s="7">
+      <c r="S52" s="7">
         <v>225.16499999999999</v>
       </c>
-      <c r="P52" s="7">
+      <c r="T52" s="7">
         <v>209.947</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="U52" s="7">
         <v>220.679</v>
       </c>
-      <c r="R52" s="7">
+      <c r="V52" s="7">
         <v>247.56200000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -4530,38 +4842,42 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="7">
-        <f t="shared" ref="L53:P53" si="33">SUM(L50:L52)</f>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7">
+        <f t="shared" ref="P53:T53" si="46">SUM(P50:P52)</f>
         <v>1049.643</v>
       </c>
-      <c r="M53" s="7">
-        <f t="shared" si="33"/>
+      <c r="Q53" s="7">
+        <f t="shared" si="46"/>
         <v>2284.9160000000002</v>
       </c>
-      <c r="N53" s="7">
-        <f t="shared" si="33"/>
+      <c r="R53" s="7">
+        <f t="shared" si="46"/>
         <v>1653.2730000000001</v>
       </c>
-      <c r="O53" s="7">
-        <f t="shared" si="33"/>
+      <c r="S53" s="7">
+        <f t="shared" si="46"/>
         <v>1431.732</v>
       </c>
-      <c r="P53" s="7">
-        <f t="shared" si="33"/>
+      <c r="T53" s="7">
+        <f t="shared" si="46"/>
         <v>1485.0819999999999</v>
       </c>
-      <c r="Q53" s="7">
-        <f>SUM(Q50:Q52)</f>
+      <c r="U53" s="7">
+        <f>SUM(U50:U52)</f>
         <v>1436.9680000000001</v>
       </c>
-      <c r="R53" s="7">
-        <f>SUM(R50:R52)</f>
+      <c r="V53" s="7">
+        <f>SUM(V50:V52)</f>
         <v>1626.4560000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -4572,36 +4888,40 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="8">
-        <f t="shared" ref="L54:R54" si="34">L49+L53</f>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="8">
+        <f t="shared" ref="P54:V54" si="47">P49+P53</f>
         <v>2385.5929999999998</v>
       </c>
-      <c r="M54" s="8">
-        <f t="shared" si="34"/>
+      <c r="Q54" s="8">
+        <f t="shared" si="47"/>
         <v>3549.665</v>
       </c>
-      <c r="N54" s="8">
-        <f t="shared" si="34"/>
+      <c r="R54" s="8">
+        <f t="shared" si="47"/>
         <v>3314.902</v>
       </c>
-      <c r="O54" s="8">
-        <f t="shared" si="34"/>
+      <c r="S54" s="8">
+        <f t="shared" si="47"/>
         <v>2939.491</v>
       </c>
-      <c r="P54" s="8">
-        <f t="shared" si="34"/>
+      <c r="T54" s="8">
+        <f t="shared" si="47"/>
         <v>2713.0999999999995</v>
       </c>
-      <c r="Q54" s="8">
-        <f t="shared" si="34"/>
+      <c r="U54" s="8">
+        <f t="shared" si="47"/>
         <v>2974.2330000000002</v>
       </c>
-      <c r="R54" s="8">
-        <f t="shared" si="34"/>
+      <c r="V54" s="8">
+        <f t="shared" si="47"/>
         <v>3299.8870000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -4616,11 +4936,15 @@
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="V55" s="7"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -4631,31 +4955,35 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="7">
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7">
         <v>226.87799999999999</v>
       </c>
-      <c r="M56" s="7">
+      <c r="Q56" s="7">
         <v>219.91900000000001</v>
       </c>
-      <c r="N56" s="7">
+      <c r="R56" s="7">
         <v>289.39600000000002</v>
       </c>
-      <c r="O56" s="7">
+      <c r="S56" s="7">
         <v>374.82900000000001</v>
       </c>
-      <c r="P56" s="7">
+      <c r="T56" s="7">
         <v>258.89499999999998</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="U56" s="7">
         <v>296.976</v>
       </c>
-      <c r="R56" s="7">
+      <c r="V56" s="7">
         <v>364.53199999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -4666,31 +4994,35 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="7">
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7">
         <v>293.57900000000001</v>
       </c>
-      <c r="M57" s="7">
+      <c r="Q57" s="7">
         <v>302.214</v>
       </c>
-      <c r="N57" s="7">
+      <c r="R57" s="7">
         <v>396.36500000000001</v>
       </c>
-      <c r="O57" s="7">
+      <c r="S57" s="7">
         <v>395.815</v>
       </c>
-      <c r="P57" s="7">
+      <c r="T57" s="7">
         <v>413.303</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="U57" s="7">
         <v>436.65499999999997</v>
       </c>
-      <c r="R57" s="7">
+      <c r="V57" s="7">
         <v>504.92200000000003</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -4701,31 +5033,35 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="7">
-        <v>0</v>
-      </c>
-      <c r="M58" s="7">
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="7">
         <v>282.82900000000001</v>
       </c>
-      <c r="N58" s="7">
+      <c r="R58" s="7">
         <v>248.846</v>
       </c>
-      <c r="O58" s="7">
+      <c r="S58" s="7">
         <v>222.82300000000001</v>
       </c>
-      <c r="P58" s="7">
+      <c r="T58" s="7">
         <v>213.97900000000001</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="U58" s="7">
         <v>179.625</v>
       </c>
-      <c r="R58" s="7">
+      <c r="V58" s="7">
         <v>211.6</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -4736,31 +5072,35 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="7">
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7">
         <v>18.902000000000001</v>
       </c>
-      <c r="M59" s="7">
+      <c r="Q59" s="7">
         <v>10.391999999999999</v>
       </c>
-      <c r="N59" s="7">
+      <c r="R59" s="7">
         <v>24.792000000000002</v>
       </c>
-      <c r="O59" s="7">
+      <c r="S59" s="7">
         <v>21.773</v>
       </c>
-      <c r="P59" s="7">
+      <c r="T59" s="7">
         <v>16.023</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="U59" s="7">
         <v>53.564</v>
       </c>
-      <c r="R59" s="7">
+      <c r="V59" s="7">
         <v>45.89</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -4771,31 +5111,35 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="7">
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7">
         <v>19.558</v>
       </c>
-      <c r="M60" s="7">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7">
-        <v>0</v>
-      </c>
-      <c r="O60" s="7">
-        <v>0</v>
-      </c>
-      <c r="P60" s="7">
-        <v>0</v>
-      </c>
       <c r="Q60" s="7">
         <v>0</v>
       </c>
       <c r="R60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="7">
+        <v>0</v>
+      </c>
+      <c r="T60" s="7">
+        <v>0</v>
+      </c>
+      <c r="U60" s="7">
+        <v>0</v>
+      </c>
+      <c r="V60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -4806,38 +5150,42 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="7">
-        <f t="shared" ref="L61:P61" si="35">SUM(L56:L60)</f>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7">
+        <f t="shared" ref="P61:T61" si="48">SUM(P56:P60)</f>
         <v>558.91700000000003</v>
       </c>
-      <c r="M61" s="7">
-        <f t="shared" si="35"/>
+      <c r="Q61" s="7">
+        <f t="shared" si="48"/>
         <v>815.35400000000004</v>
       </c>
-      <c r="N61" s="7">
-        <f t="shared" si="35"/>
+      <c r="R61" s="7">
+        <f t="shared" si="48"/>
         <v>959.399</v>
       </c>
-      <c r="O61" s="7">
-        <f t="shared" si="35"/>
+      <c r="S61" s="7">
+        <f t="shared" si="48"/>
         <v>1015.24</v>
       </c>
-      <c r="P61" s="7">
-        <f t="shared" si="35"/>
+      <c r="T61" s="7">
+        <f t="shared" si="48"/>
         <v>902.2</v>
       </c>
-      <c r="Q61" s="7">
-        <f>SUM(Q56:Q60)</f>
+      <c r="U61" s="7">
+        <f>SUM(U56:U60)</f>
         <v>966.81999999999994</v>
       </c>
-      <c r="R61" s="7">
-        <f>SUM(R56:R60)</f>
+      <c r="V61" s="7">
+        <f>SUM(V56:V60)</f>
         <v>1126.944</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -4848,31 +5196,35 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="7">
-        <v>0</v>
-      </c>
-      <c r="M62" s="7">
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
         <v>1252.634</v>
       </c>
-      <c r="N62" s="7">
+      <c r="R62" s="7">
         <v>957.58799999999997</v>
       </c>
-      <c r="O62" s="7">
+      <c r="S62" s="7">
         <v>697.26400000000001</v>
       </c>
-      <c r="P62" s="7">
+      <c r="T62" s="7">
         <v>713.36099999999999</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="U62" s="7">
         <v>646.62400000000002</v>
       </c>
-      <c r="R62" s="7">
+      <c r="V62" s="7">
         <v>740.01300000000003</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4883,31 +5235,35 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="7">
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7">
         <v>250.43899999999999</v>
       </c>
-      <c r="M63" s="7">
+      <c r="Q63" s="7">
         <v>231.96299999999999</v>
       </c>
-      <c r="N63" s="7">
+      <c r="R63" s="7">
         <v>343.91</v>
       </c>
-      <c r="O63" s="7">
+      <c r="S63" s="7">
         <v>303.57400000000001</v>
       </c>
-      <c r="P63" s="7">
+      <c r="T63" s="7">
         <v>296.85199999999998</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="U63" s="7">
         <v>222.119</v>
       </c>
-      <c r="R63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -4918,32 +5274,36 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="7">
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7">
         <f>76.134+46.337+235.145</f>
         <v>357.61599999999999</v>
       </c>
-      <c r="M64" s="7">
+      <c r="Q64" s="7">
         <v>178.536</v>
       </c>
-      <c r="N64" s="7">
+      <c r="R64" s="7">
         <v>104.693</v>
       </c>
-      <c r="O64" s="7">
+      <c r="S64" s="7">
         <v>86.088999999999999</v>
       </c>
-      <c r="P64" s="7">
+      <c r="T64" s="7">
         <v>94.117999999999995</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="U64" s="7">
         <v>88.864000000000004</v>
       </c>
-      <c r="R64" s="7">
+      <c r="V64" s="7">
         <v>81.606999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4954,38 +5314,42 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="7">
-        <f t="shared" ref="L65:P65" si="36">SUM(L62:L64)</f>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7">
+        <f t="shared" ref="P65:T65" si="49">SUM(P62:P64)</f>
         <v>608.05499999999995</v>
       </c>
-      <c r="M65" s="7">
-        <f t="shared" si="36"/>
+      <c r="Q65" s="7">
+        <f t="shared" si="49"/>
         <v>1663.133</v>
       </c>
-      <c r="N65" s="7">
-        <f t="shared" si="36"/>
+      <c r="R65" s="7">
+        <f t="shared" si="49"/>
         <v>1406.191</v>
       </c>
-      <c r="O65" s="7">
-        <f t="shared" si="36"/>
+      <c r="S65" s="7">
+        <f t="shared" si="49"/>
         <v>1086.9269999999999</v>
       </c>
-      <c r="P65" s="7">
-        <f t="shared" si="36"/>
+      <c r="T65" s="7">
+        <f t="shared" si="49"/>
         <v>1104.3309999999999</v>
       </c>
-      <c r="Q65" s="7">
-        <f>SUM(Q62:Q64)</f>
+      <c r="U65" s="7">
+        <f>SUM(U62:U64)</f>
         <v>957.60700000000008</v>
       </c>
-      <c r="R65" s="7">
-        <f>SUM(R62:R64)</f>
+      <c r="V65" s="7">
+        <f>SUM(V62:V64)</f>
         <v>821.62</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -4996,38 +5360,42 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="7">
-        <f t="shared" ref="L66:R66" si="37">L61+L65</f>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7">
+        <f t="shared" ref="P66:V66" si="50">P61+P65</f>
         <v>1166.972</v>
       </c>
-      <c r="M66" s="7">
-        <f t="shared" si="37"/>
+      <c r="Q66" s="7">
+        <f t="shared" si="50"/>
         <v>2478.4870000000001</v>
       </c>
-      <c r="N66" s="7">
-        <f t="shared" si="37"/>
+      <c r="R66" s="7">
+        <f t="shared" si="50"/>
         <v>2365.59</v>
       </c>
-      <c r="O66" s="7">
-        <f t="shared" si="37"/>
+      <c r="S66" s="7">
+        <f t="shared" si="50"/>
         <v>2102.1669999999999</v>
       </c>
-      <c r="P66" s="7">
-        <f t="shared" si="37"/>
+      <c r="T66" s="7">
+        <f t="shared" si="50"/>
         <v>2006.5309999999999</v>
       </c>
-      <c r="Q66" s="7">
-        <f t="shared" si="37"/>
+      <c r="U66" s="7">
+        <f t="shared" si="50"/>
         <v>1924.4270000000001</v>
       </c>
-      <c r="R66" s="7">
-        <f t="shared" si="37"/>
+      <c r="V66" s="7">
+        <f t="shared" si="50"/>
         <v>1948.5639999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -5038,31 +5406,35 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="7">
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7">
         <v>1218.6209999999999</v>
       </c>
-      <c r="M67" s="7">
+      <c r="Q67" s="7">
         <v>1071.1779999999999</v>
       </c>
-      <c r="N67" s="7">
+      <c r="R67" s="7">
         <v>949.31200000000013</v>
       </c>
-      <c r="O67" s="7">
+      <c r="S67" s="7">
         <v>837.32399999999973</v>
       </c>
-      <c r="P67" s="7">
+      <c r="T67" s="7">
         <v>706.56900000000007</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="U67" s="7">
         <v>1049.9869999999999</v>
       </c>
-      <c r="R67" s="7">
+      <c r="V67" s="7">
         <v>1351.3230000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -5073,36 +5445,40 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="8">
-        <f>L67+L66</f>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="8">
+        <f t="shared" ref="P68:V68" si="51">P67+P66</f>
         <v>2385.5929999999998</v>
       </c>
-      <c r="M68" s="8">
-        <f>M67+M66</f>
+      <c r="Q68" s="8">
+        <f t="shared" si="51"/>
         <v>3549.665</v>
       </c>
-      <c r="N68" s="8">
-        <f>N67+N66</f>
+      <c r="R68" s="8">
+        <f t="shared" si="51"/>
         <v>3314.902</v>
       </c>
-      <c r="O68" s="8">
-        <f>O67+O66</f>
+      <c r="S68" s="8">
+        <f t="shared" si="51"/>
         <v>2939.4909999999995</v>
       </c>
-      <c r="P68" s="8">
-        <f>P67+P66</f>
+      <c r="T68" s="8">
+        <f t="shared" si="51"/>
         <v>2713.1</v>
       </c>
-      <c r="Q68" s="8">
-        <f>Q67+Q66</f>
+      <c r="U68" s="8">
+        <f t="shared" si="51"/>
         <v>2974.4139999999998</v>
       </c>
-      <c r="R68" s="8">
-        <f>R67+R66</f>
+      <c r="V68" s="8">
+        <f t="shared" si="51"/>
         <v>3299.8869999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -5119,8 +5495,12 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -5137,13 +5517,17 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5161,10 +5545,14 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -5175,35 +5563,39 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="7">
-        <f>L28</f>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7">
+        <f t="shared" ref="P72:U72" si="52">P28</f>
         <v>78.80800000000022</v>
       </c>
-      <c r="M72" s="7">
-        <f>M28</f>
+      <c r="Q72" s="7">
+        <f t="shared" si="52"/>
         <v>44.960000000000633</v>
       </c>
-      <c r="N72" s="7">
-        <f>N28</f>
+      <c r="R72" s="7">
+        <f t="shared" si="52"/>
         <v>-108.95400000000021</v>
       </c>
-      <c r="O72" s="7">
-        <f>O28</f>
+      <c r="S72" s="7">
+        <f t="shared" si="52"/>
         <v>270.06599999999986</v>
       </c>
-      <c r="P72" s="7">
-        <f>P28</f>
+      <c r="T72" s="7">
+        <f t="shared" si="52"/>
         <v>10.385000000000616</v>
       </c>
-      <c r="Q72" s="7">
-        <f>Q28</f>
+      <c r="U72" s="7">
+        <f t="shared" si="52"/>
         <v>335.41299999999933</v>
       </c>
-      <c r="R72" s="7"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V72" s="7"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5214,29 +5606,33 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="7">
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7">
         <v>178.03</v>
       </c>
-      <c r="M73" s="7">
+      <c r="Q73" s="7">
         <v>173.625</v>
       </c>
-      <c r="N73" s="7">
+      <c r="R73" s="7">
         <v>166.28100000000001</v>
       </c>
-      <c r="O73" s="7">
+      <c r="S73" s="7">
         <v>144.035</v>
       </c>
-      <c r="P73" s="7">
+      <c r="T73" s="7">
         <v>132.24299999999999</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="U73" s="7">
         <v>141.10400000000001</v>
       </c>
-      <c r="R73" s="7"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V73" s="7"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5247,29 +5643,33 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="7">
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7">
         <v>11.58</v>
       </c>
-      <c r="M74" s="7">
+      <c r="Q74" s="7">
         <v>22.364000000000001</v>
       </c>
-      <c r="N74" s="7">
+      <c r="R74" s="7">
         <v>72.936999999999998</v>
       </c>
-      <c r="O74" s="7">
+      <c r="S74" s="7">
         <v>12.1</v>
       </c>
-      <c r="P74" s="7">
+      <c r="T74" s="7">
         <v>14.031000000000001</v>
       </c>
-      <c r="Q74" s="7">
+      <c r="U74" s="7">
         <v>8.2889999999999997</v>
       </c>
-      <c r="R74" s="7"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V74" s="7"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5280,29 +5680,33 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="7">
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7">
         <v>6.02</v>
       </c>
-      <c r="M75" s="7">
+      <c r="Q75" s="7">
         <v>6.298</v>
       </c>
-      <c r="N75" s="7">
+      <c r="R75" s="7">
         <v>16.353000000000002</v>
       </c>
-      <c r="O75" s="7">
+      <c r="S75" s="7">
         <v>5.0199999999999996</v>
       </c>
-      <c r="P75" s="7">
+      <c r="T75" s="7">
         <v>0.55200000000000005</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="U75" s="7">
         <v>6.4080000000000004</v>
       </c>
-      <c r="R75" s="7"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V75" s="7"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -5313,29 +5717,33 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="7">
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7">
         <v>5.9640000000000004</v>
       </c>
-      <c r="M76" s="7">
+      <c r="Q76" s="7">
         <v>9.15</v>
       </c>
-      <c r="N76" s="7">
+      <c r="R76" s="7">
         <v>23.986000000000001</v>
       </c>
-      <c r="O76" s="7">
+      <c r="S76" s="7">
         <v>-31.922000000000001</v>
       </c>
-      <c r="P76" s="7">
+      <c r="T76" s="7">
         <v>11.5</v>
       </c>
-      <c r="Q76" s="7">
+      <c r="U76" s="7">
         <v>-4.7430000000000003</v>
       </c>
-      <c r="R76" s="7"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V76" s="7"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -5346,29 +5754,33 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="7">
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7">
         <v>21.754999999999999</v>
       </c>
-      <c r="M77" s="7">
+      <c r="Q77" s="7">
         <v>14.007</v>
       </c>
-      <c r="N77" s="7">
+      <c r="R77" s="7">
         <v>18.681999999999999</v>
       </c>
-      <c r="O77" s="7">
+      <c r="S77" s="7">
         <v>29.303999999999998</v>
       </c>
-      <c r="P77" s="7">
+      <c r="T77" s="7">
         <v>28.995000000000001</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="U77" s="7">
         <v>40.122</v>
       </c>
-      <c r="R77" s="7"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V77" s="7"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -5379,29 +5791,33 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="7">
-        <v>0</v>
-      </c>
-      <c r="M78" s="7">
-        <v>0</v>
-      </c>
-      <c r="N78" s="7">
-        <v>0</v>
-      </c>
-      <c r="O78" s="7">
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
         <v>5.3470000000000004</v>
       </c>
-      <c r="P78" s="7">
+      <c r="T78" s="7">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="U78" s="7">
         <v>1.9750000000000001</v>
       </c>
-      <c r="R78" s="7"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V78" s="7"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -5412,29 +5828,33 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="7">
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7">
         <v>-21.32</v>
       </c>
-      <c r="M79" s="7">
-        <v>0</v>
-      </c>
-      <c r="N79" s="7">
-        <v>0</v>
-      </c>
-      <c r="O79" s="7">
-        <v>0</v>
-      </c>
-      <c r="P79" s="7">
-        <v>0</v>
-      </c>
       <c r="Q79" s="7">
         <v>0</v>
       </c>
-      <c r="R79" s="7"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7">
+        <v>0</v>
+      </c>
+      <c r="T79" s="7">
+        <v>0</v>
+      </c>
+      <c r="U79" s="7">
+        <v>0</v>
+      </c>
+      <c r="V79" s="7"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -5452,10 +5872,14 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -5466,29 +5890,33 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="7">
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7">
         <v>-23.82</v>
       </c>
-      <c r="M81" s="7">
+      <c r="Q81" s="7">
         <v>2.27</v>
       </c>
-      <c r="N81" s="7">
+      <c r="R81" s="7">
         <v>33.311999999999998</v>
       </c>
-      <c r="O81" s="7">
+      <c r="S81" s="7">
         <v>-123.221</v>
       </c>
-      <c r="P81" s="7">
+      <c r="T81" s="7">
         <v>18.504999999999999</v>
       </c>
-      <c r="Q81" s="7">
+      <c r="U81" s="7">
         <v>35.042999999999999</v>
       </c>
-      <c r="R81" s="7"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V81" s="7"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -5499,29 +5927,33 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="7">
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7">
         <v>63.155000000000001</v>
       </c>
-      <c r="M82" s="7">
+      <c r="Q82" s="7">
         <v>10.821</v>
       </c>
-      <c r="N82" s="7">
+      <c r="R82" s="7">
         <v>186.74700000000001</v>
       </c>
-      <c r="O82" s="7">
+      <c r="S82" s="7">
         <v>77.91</v>
       </c>
-      <c r="P82" s="7">
+      <c r="T82" s="7">
         <v>-115.152</v>
       </c>
-      <c r="Q82" s="7">
+      <c r="U82" s="7">
         <v>82.924999999999997</v>
       </c>
-      <c r="R82" s="7"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V82" s="7"/>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -5532,29 +5964,33 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="7">
-        <v>0</v>
-      </c>
-      <c r="M83" s="7">
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="7">
         <v>46.442</v>
       </c>
-      <c r="N83" s="7">
+      <c r="R83" s="7">
         <v>-55.7</v>
       </c>
-      <c r="O83" s="7">
+      <c r="S83" s="7">
         <v>-93.826999999999998</v>
       </c>
-      <c r="P83" s="7">
+      <c r="T83" s="7">
         <v>-18.495000000000001</v>
       </c>
-      <c r="Q83" s="7">
+      <c r="U83" s="7">
         <v>-55.646000000000001</v>
       </c>
-      <c r="R83" s="7"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V83" s="7"/>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -5565,29 +6001,33 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="7">
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7">
         <v>5.4089999999999998</v>
       </c>
-      <c r="M84" s="7">
+      <c r="Q84" s="7">
         <v>-5.4729999999999999</v>
       </c>
-      <c r="N84" s="7">
+      <c r="R84" s="7">
         <v>10.753</v>
       </c>
-      <c r="O84" s="7">
+      <c r="S84" s="7">
         <v>-3.0859999999999999</v>
       </c>
-      <c r="P84" s="7">
+      <c r="T84" s="7">
         <v>-7.39</v>
       </c>
-      <c r="Q84" s="7">
+      <c r="U84" s="7">
         <v>35.805999999999997</v>
       </c>
-      <c r="R84" s="7"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V84" s="7"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -5598,29 +6038,33 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="7">
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7">
         <v>33.302</v>
       </c>
-      <c r="M85" s="7">
+      <c r="Q85" s="7">
         <v>-20.172999999999998</v>
       </c>
-      <c r="N85" s="7">
+      <c r="R85" s="7">
         <v>38.631999999999998</v>
       </c>
-      <c r="O85" s="7">
+      <c r="S85" s="7">
         <v>0.39600000000000002</v>
       </c>
-      <c r="P85" s="7">
+      <c r="T85" s="7">
         <v>-86.923000000000002</v>
       </c>
-      <c r="Q85" s="7">
+      <c r="U85" s="7">
         <v>33.622999999999998</v>
       </c>
-      <c r="R85" s="7"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V85" s="7"/>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -5631,29 +6075,33 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="7">
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7">
         <v>-5.9320000000000004</v>
       </c>
-      <c r="M86" s="7">
+      <c r="Q86" s="7">
         <v>-3.6419999999999999</v>
       </c>
-      <c r="N86" s="7">
+      <c r="R86" s="7">
         <v>1.889</v>
       </c>
-      <c r="O86" s="7">
+      <c r="S86" s="7">
         <v>-14.34</v>
       </c>
-      <c r="P86" s="7">
+      <c r="T86" s="7">
         <v>9.4580000000000002</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="U86" s="7">
         <v>-6.8970000000000002</v>
       </c>
-      <c r="R86" s="7"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V86" s="7"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -5664,35 +6112,39 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="7">
-        <f t="shared" ref="L87:P87" si="38">SUM(L81:L86)</f>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7">
+        <f t="shared" ref="P87:T87" si="53">SUM(P81:P86)</f>
         <v>72.11399999999999</v>
       </c>
-      <c r="M87" s="7">
-        <f t="shared" si="38"/>
+      <c r="Q87" s="7">
+        <f t="shared" si="53"/>
         <v>30.245000000000001</v>
       </c>
-      <c r="N87" s="7">
-        <f t="shared" si="38"/>
+      <c r="R87" s="7">
+        <f t="shared" si="53"/>
         <v>215.63300000000004</v>
       </c>
-      <c r="O87" s="7">
-        <f t="shared" si="38"/>
+      <c r="S87" s="7">
+        <f t="shared" si="53"/>
         <v>-156.16800000000003</v>
       </c>
-      <c r="P87" s="7">
-        <f t="shared" si="38"/>
+      <c r="T87" s="7">
+        <f t="shared" si="53"/>
         <v>-199.99700000000001</v>
       </c>
-      <c r="Q87" s="7">
-        <f>SUM(Q81:Q86)</f>
+      <c r="U87" s="7">
+        <f>SUM(U81:U86)</f>
         <v>124.85399999999997</v>
       </c>
-      <c r="R87" s="7"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V87" s="7"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -5703,59 +6155,63 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="8">
-        <f>L72+SUM(L73:L79)+L87</f>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="8">
+        <f>P72+SUM(P73:P79)+P87</f>
         <v>352.95100000000019</v>
       </c>
-      <c r="M88" s="8">
-        <f t="shared" ref="M88:Q88" si="39">M72+SUM(M73:M79)+M87</f>
+      <c r="Q88" s="8">
+        <f t="shared" ref="Q88:U88" si="54">Q72+SUM(Q73:Q79)+Q87</f>
         <v>300.64900000000068</v>
       </c>
-      <c r="N88" s="8">
-        <f t="shared" si="39"/>
+      <c r="R88" s="8">
+        <f t="shared" si="54"/>
         <v>404.91799999999989</v>
       </c>
-      <c r="O88" s="8">
-        <f t="shared" si="39"/>
+      <c r="S88" s="8">
+        <f t="shared" si="54"/>
         <v>277.78199999999981</v>
       </c>
-      <c r="P88" s="8">
-        <f t="shared" si="39"/>
+      <c r="T88" s="8">
+        <f t="shared" si="54"/>
         <v>-2.3429999999993925</v>
       </c>
-      <c r="Q88" s="8">
-        <f t="shared" si="39"/>
+      <c r="U88" s="8">
+        <f t="shared" si="54"/>
         <v>653.42199999999923</v>
       </c>
-      <c r="R88" s="7"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V88" s="7"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>92</v>
-      </c>
-      <c r="L89" s="7">
+        <v>87</v>
+      </c>
+      <c r="P89" s="7">
         <v>-152.393</v>
       </c>
-      <c r="M89" s="7">
+      <c r="Q89" s="7">
         <v>-202.78399999999999</v>
       </c>
-      <c r="N89" s="7">
+      <c r="R89" s="7">
         <v>-101.91</v>
       </c>
-      <c r="O89" s="7">
+      <c r="S89" s="7">
         <v>-96.975999999999999</v>
       </c>
-      <c r="P89" s="7">
+      <c r="T89" s="7">
         <v>-164.566</v>
       </c>
-      <c r="Q89" s="7">
+      <c r="U89" s="7">
         <v>-157.797</v>
       </c>
-      <c r="R89" s="7"/>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V89" s="7"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -5766,29 +6222,33 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="7">
-        <v>0</v>
-      </c>
-      <c r="M90" s="7">
-        <v>0</v>
-      </c>
-      <c r="N90" s="7">
-        <v>0</v>
-      </c>
-      <c r="O90" s="7">
-        <v>0</v>
-      </c>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
       <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0</v>
+      </c>
+      <c r="S90" s="7">
+        <v>0</v>
+      </c>
+      <c r="T90" s="7">
         <v>11.891</v>
       </c>
-      <c r="Q90" s="7">
+      <c r="U90" s="7">
         <v>0.61499999999999999</v>
       </c>
-      <c r="R90" s="7"/>
-    </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V90" s="7"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -5799,29 +6259,33 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="7">
-        <v>0</v>
-      </c>
-      <c r="M91" s="7">
-        <v>0</v>
-      </c>
-      <c r="N91" s="7">
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0</v>
+      </c>
+      <c r="R91" s="7">
         <v>50</v>
       </c>
-      <c r="O91" s="7">
-        <v>0</v>
-      </c>
-      <c r="P91" s="7">
+      <c r="S91" s="7">
+        <v>0</v>
+      </c>
+      <c r="T91" s="7">
         <v>12</v>
       </c>
-      <c r="Q91" s="7">
-        <v>0</v>
-      </c>
-      <c r="R91" s="7"/>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U91" s="7">
+        <v>0</v>
+      </c>
+      <c r="V91" s="7"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -5832,35 +6296,39 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="8">
-        <f t="shared" ref="L92:P92" si="40">SUM(L89:L91)</f>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="8">
+        <f t="shared" ref="P92:T92" si="55">SUM(P89:P91)</f>
         <v>-152.393</v>
       </c>
-      <c r="M92" s="8">
-        <f t="shared" si="40"/>
+      <c r="Q92" s="8">
+        <f t="shared" si="55"/>
         <v>-202.78399999999999</v>
       </c>
-      <c r="N92" s="8">
-        <f t="shared" si="40"/>
+      <c r="R92" s="8">
+        <f t="shared" si="55"/>
         <v>-51.91</v>
       </c>
-      <c r="O92" s="8">
-        <f t="shared" si="40"/>
+      <c r="S92" s="8">
+        <f t="shared" si="55"/>
         <v>-96.975999999999999</v>
       </c>
-      <c r="P92" s="8">
-        <f t="shared" si="40"/>
+      <c r="T92" s="8">
+        <f t="shared" si="55"/>
         <v>-140.67500000000001</v>
       </c>
-      <c r="Q92" s="8">
-        <f>SUM(Q89:Q91)</f>
+      <c r="U92" s="8">
+        <f>SUM(U89:U91)</f>
         <v>-157.18199999999999</v>
       </c>
-      <c r="R92" s="7"/>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V92" s="7"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -5871,30 +6339,34 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="7">
-        <v>0</v>
-      </c>
-      <c r="M93" s="7">
-        <v>0</v>
-      </c>
-      <c r="N93" s="7">
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>0</v>
+      </c>
+      <c r="R93" s="7">
         <f>350+210</f>
         <v>560</v>
       </c>
-      <c r="O93" s="7">
-        <v>0</v>
-      </c>
-      <c r="P93" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="7">
-        <v>0</v>
-      </c>
-      <c r="R93" s="7"/>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="7">
+        <v>0</v>
+      </c>
+      <c r="T93" s="7">
+        <v>0</v>
+      </c>
+      <c r="U93" s="7">
+        <v>0</v>
+      </c>
+      <c r="V93" s="7"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -5905,30 +6377,34 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
-      <c r="L94" s="7">
-        <v>0</v>
-      </c>
-      <c r="M94" s="7">
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="7">
         <v>-20</v>
       </c>
-      <c r="N94" s="7">
+      <c r="R94" s="7">
         <f>-233.25-210</f>
         <v>-443.25</v>
       </c>
-      <c r="O94" s="7">
+      <c r="S94" s="7">
         <v>-46.969000000000001</v>
       </c>
-      <c r="P94" s="7">
+      <c r="T94" s="7">
         <v>-7.8620000000000001</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="U94" s="7">
         <v>-77.971999999999994</v>
       </c>
-      <c r="R94" s="7"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V94" s="7"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -5939,29 +6415,33 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="7">
-        <v>0</v>
-      </c>
-      <c r="M95" s="7">
-        <v>0</v>
-      </c>
-      <c r="N95" s="7">
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>0</v>
+      </c>
+      <c r="R95" s="7">
         <v>-7.3179999999999996</v>
       </c>
-      <c r="O95" s="7">
+      <c r="S95" s="7">
         <v>-2.016</v>
       </c>
-      <c r="P95" s="7">
+      <c r="T95" s="7">
         <v>-0.18099999999999999</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="U95" s="7">
         <v>-0.18</v>
       </c>
-      <c r="R95" s="7"/>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V95" s="7"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -5972,29 +6452,33 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="7">
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7">
         <v>-53.713999999999999</v>
       </c>
-      <c r="M96" s="7">
+      <c r="Q96" s="7">
         <v>-51.51</v>
       </c>
-      <c r="N96" s="7">
+      <c r="R96" s="7">
         <v>-12.555999999999999</v>
       </c>
-      <c r="O96" s="7">
-        <v>0</v>
-      </c>
-      <c r="P96" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="7">
-        <v>0</v>
-      </c>
-      <c r="R96" s="7"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="7">
+        <v>0</v>
+      </c>
+      <c r="T96" s="7">
+        <v>0</v>
+      </c>
+      <c r="U96" s="7">
+        <v>0</v>
+      </c>
+      <c r="V96" s="7"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -6005,29 +6489,33 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
-      <c r="L97" s="7">
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7">
         <v>-68.67</v>
       </c>
-      <c r="M97" s="7">
+      <c r="Q97" s="7">
         <v>-63.542000000000002</v>
       </c>
-      <c r="N97" s="7">
+      <c r="R97" s="7">
         <v>-15.172000000000001</v>
       </c>
-      <c r="O97" s="7">
+      <c r="S97" s="7">
         <v>-377.29</v>
       </c>
-      <c r="P97" s="7">
+      <c r="T97" s="7">
         <v>-125.77500000000001</v>
       </c>
-      <c r="Q97" s="7">
-        <v>0</v>
-      </c>
-      <c r="R97" s="7"/>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U97" s="7">
+        <v>0</v>
+      </c>
+      <c r="V97" s="7"/>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -6038,29 +6526,33 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="7">
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7">
         <v>-9.3070000000000004</v>
       </c>
-      <c r="M98" s="7">
+      <c r="Q98" s="7">
         <v>-12.821</v>
       </c>
-      <c r="N98" s="7">
+      <c r="R98" s="7">
         <v>-11.987</v>
       </c>
-      <c r="O98" s="7">
+      <c r="S98" s="7">
         <v>-20.623000000000001</v>
       </c>
-      <c r="P98" s="7">
+      <c r="T98" s="7">
         <v>-21.510999999999999</v>
       </c>
-      <c r="Q98" s="7">
+      <c r="U98" s="7">
         <v>-33.048999999999999</v>
       </c>
-      <c r="R98" s="7"/>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V98" s="7"/>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -6071,33 +6563,37 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
-      <c r="L99" s="8">
-        <f t="shared" ref="L99:M99" si="41">SUM(L93:L98)</f>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="8">
+        <f t="shared" ref="P99:Q99" si="56">SUM(P93:P98)</f>
         <v>-131.691</v>
       </c>
-      <c r="M99" s="8">
-        <f t="shared" si="41"/>
+      <c r="Q99" s="8">
+        <f t="shared" si="56"/>
         <v>-147.87299999999999</v>
       </c>
-      <c r="N99" s="8">
-        <f>SUM(N93:N98)</f>
+      <c r="R99" s="8">
+        <f>SUM(R93:R98)</f>
         <v>69.717000000000013</v>
       </c>
-      <c r="O99" s="8">
-        <f t="shared" ref="O99:Q99" si="42">SUM(O93:O98)</f>
+      <c r="S99" s="8">
+        <f t="shared" ref="S99:U99" si="57">SUM(S93:S98)</f>
         <v>-446.89800000000002</v>
       </c>
-      <c r="P99" s="8">
-        <f t="shared" si="42"/>
+      <c r="T99" s="8">
+        <f t="shared" si="57"/>
         <v>-155.32900000000001</v>
       </c>
-      <c r="Q99" s="8">
-        <f t="shared" si="42"/>
+      <c r="U99" s="8">
+        <f t="shared" si="57"/>
         <v>-111.20099999999999</v>
       </c>
-      <c r="R99" s="7"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V99" s="7"/>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -6114,10 +6610,14 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -6128,29 +6628,33 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
-      <c r="L101" s="7">
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7">
         <v>-20.975000000000001</v>
       </c>
-      <c r="M101" s="7">
+      <c r="Q101" s="7">
         <v>-3.593</v>
       </c>
-      <c r="N101" s="7">
+      <c r="R101" s="7">
         <v>9.1679999999999993</v>
       </c>
-      <c r="O101" s="7">
+      <c r="S101" s="7">
         <v>-23.693999999999999</v>
       </c>
-      <c r="P101" s="7">
+      <c r="T101" s="7">
         <v>-8.452</v>
       </c>
-      <c r="Q101" s="7">
+      <c r="U101" s="7">
         <v>-2.923</v>
       </c>
-      <c r="R101" s="7"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V101" s="7"/>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -6161,35 +6665,39 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
-      <c r="L102" s="8">
-        <f t="shared" ref="L102:P102" si="43">L88+L92+L99+L101</f>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="8">
+        <f t="shared" ref="P102:T102" si="58">P88+P92+P99+P101</f>
         <v>47.892000000000188</v>
       </c>
-      <c r="M102" s="8">
-        <f t="shared" si="43"/>
+      <c r="Q102" s="8">
+        <f t="shared" si="58"/>
         <v>-53.600999999999303</v>
       </c>
-      <c r="N102" s="8">
-        <f t="shared" si="43"/>
+      <c r="R102" s="8">
+        <f t="shared" si="58"/>
         <v>431.89299999999992</v>
       </c>
-      <c r="O102" s="8">
-        <f t="shared" si="43"/>
+      <c r="S102" s="8">
+        <f t="shared" si="58"/>
         <v>-289.78600000000023</v>
       </c>
-      <c r="P102" s="8">
-        <f t="shared" si="43"/>
+      <c r="T102" s="8">
+        <f t="shared" si="58"/>
         <v>-306.79899999999941</v>
       </c>
-      <c r="Q102" s="8">
-        <f>Q88+Q92+Q99+Q101</f>
+      <c r="U102" s="8">
+        <f>U88+U92+U99+U101</f>
         <v>382.11599999999919</v>
       </c>
-      <c r="R102" s="7"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V102" s="7"/>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -6200,35 +6708,39 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
-      <c r="L103" s="7">
-        <f t="shared" ref="L103:Q103" si="44">L104-L102</f>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7">
+        <f t="shared" ref="P103:U103" si="59">P104-P102</f>
         <v>697.96999999999969</v>
       </c>
-      <c r="M103" s="7">
-        <f t="shared" si="44"/>
+      <c r="Q103" s="7">
+        <f t="shared" si="59"/>
         <v>745.86199999999985</v>
       </c>
-      <c r="N103" s="7">
-        <f t="shared" si="44"/>
+      <c r="R103" s="7">
+        <f t="shared" si="59"/>
         <v>692.26100000000054</v>
       </c>
-      <c r="O103" s="7">
-        <f t="shared" si="44"/>
+      <c r="S103" s="7">
+        <f t="shared" si="59"/>
         <v>1124.1540000000005</v>
       </c>
-      <c r="P103" s="7">
-        <f t="shared" si="44"/>
+      <c r="T103" s="7">
+        <f t="shared" si="59"/>
         <v>834.36800000000017</v>
       </c>
-      <c r="Q103" s="7">
-        <f t="shared" si="44"/>
+      <c r="U103" s="7">
+        <f t="shared" si="59"/>
         <v>527.56900000000076</v>
       </c>
-      <c r="R103" s="7"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V103" s="7"/>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6239,32 +6751,36 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="7">
-        <f>M103</f>
-        <v>745.86199999999985</v>
-      </c>
-      <c r="M104" s="7">
-        <f>N103</f>
-        <v>692.26100000000054</v>
-      </c>
-      <c r="N104" s="7">
-        <f>O103</f>
-        <v>1124.1540000000005</v>
-      </c>
-      <c r="O104" s="7">
-        <f>P103</f>
-        <v>834.36800000000017</v>
-      </c>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
       <c r="P104" s="7">
         <f>Q103</f>
+        <v>745.86199999999985</v>
+      </c>
+      <c r="Q104" s="7">
+        <f>R103</f>
+        <v>692.26100000000054</v>
+      </c>
+      <c r="R104" s="7">
+        <f>S103</f>
+        <v>1124.1540000000005</v>
+      </c>
+      <c r="S104" s="7">
+        <f>T103</f>
+        <v>834.36800000000017</v>
+      </c>
+      <c r="T104" s="7">
+        <f>U103</f>
         <v>527.56900000000076</v>
       </c>
-      <c r="Q104" s="7">
+      <c r="U104" s="7">
         <v>909.68499999999995</v>
       </c>
-      <c r="R104" s="7"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V104" s="7"/>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -6281,8 +6797,12 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -6299,8 +6819,12 @@
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -6317,8 +6841,12 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -6335,8 +6863,12 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -6353,8 +6885,12 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -6371,8 +6907,12 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -6389,8 +6929,12 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -6407,8 +6951,12 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-    </row>
-    <row r="113" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+    </row>
+    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -6425,8 +6973,12 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-    </row>
-    <row r="114" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+    </row>
+    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -6443,8 +6995,12 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-    </row>
-    <row r="115" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+    </row>
+    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -6461,8 +7017,12 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-    </row>
-    <row r="116" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+    </row>
+    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -6479,8 +7039,12 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-    </row>
-    <row r="117" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+    </row>
+    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -6497,8 +7061,12 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-    </row>
-    <row r="118" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+    </row>
+    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -6515,8 +7083,12 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-    </row>
-    <row r="119" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+    </row>
+    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -6533,8 +7105,12 @@
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-    </row>
-    <row r="120" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+    </row>
+    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -6551,8 +7127,12 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-    </row>
-    <row r="121" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7"/>
+    </row>
+    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -6569,8 +7149,12 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-    </row>
-    <row r="122" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+    </row>
+    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -6587,8 +7171,12 @@
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-    </row>
-    <row r="123" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+    </row>
+    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -6605,8 +7193,12 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-    </row>
-    <row r="124" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+    </row>
+    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -6623,8 +7215,12 @@
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-    </row>
-    <row r="125" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+    </row>
+    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -6641,8 +7237,12 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-    </row>
-    <row r="126" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+    </row>
+    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -6659,8 +7259,12 @@
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-    </row>
-    <row r="127" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S126" s="7"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+    </row>
+    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -6677,8 +7281,12 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-    </row>
-    <row r="128" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+    </row>
+    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -6695,8 +7303,12 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-    </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+    </row>
+    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -6713,8 +7325,12 @@
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-    </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S129" s="7"/>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
+    </row>
+    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -6731,8 +7347,12 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-    </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S130" s="7"/>
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+      <c r="V130" s="7"/>
+    </row>
+    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -6749,8 +7369,12 @@
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-    </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S131" s="7"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+    </row>
+    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -6767,8 +7391,12 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
-    </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S132" s="7"/>
+      <c r="T132" s="7"/>
+      <c r="U132" s="7"/>
+      <c r="V132" s="7"/>
+    </row>
+    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -6785,8 +7413,12 @@
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
-    </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S133" s="7"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+    </row>
+    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -6803,8 +7435,12 @@
       <c r="P134" s="7"/>
       <c r="Q134" s="7"/>
       <c r="R134" s="7"/>
-    </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S134" s="7"/>
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
+    </row>
+    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -6821,8 +7457,12 @@
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="7"/>
-    </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S135" s="7"/>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+    </row>
+    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -6839,8 +7479,12 @@
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
       <c r="R136" s="7"/>
-    </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="U136" s="7"/>
+      <c r="V136" s="7"/>
+    </row>
+    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -6857,8 +7501,12 @@
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
       <c r="R137" s="7"/>
-    </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+    </row>
+    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -6875,8 +7523,12 @@
       <c r="P138" s="7"/>
       <c r="Q138" s="7"/>
       <c r="R138" s="7"/>
-    </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S138" s="7"/>
+      <c r="T138" s="7"/>
+      <c r="U138" s="7"/>
+      <c r="V138" s="7"/>
+    </row>
+    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -6893,8 +7545,12 @@
       <c r="P139" s="7"/>
       <c r="Q139" s="7"/>
       <c r="R139" s="7"/>
-    </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S139" s="7"/>
+      <c r="T139" s="7"/>
+      <c r="U139" s="7"/>
+      <c r="V139" s="7"/>
+    </row>
+    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -6911,8 +7567,12 @@
       <c r="P140" s="7"/>
       <c r="Q140" s="7"/>
       <c r="R140" s="7"/>
-    </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S140" s="7"/>
+      <c r="T140" s="7"/>
+      <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
+    </row>
+    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -6929,8 +7589,12 @@
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
       <c r="R141" s="7"/>
-    </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S141" s="7"/>
+      <c r="T141" s="7"/>
+      <c r="U141" s="7"/>
+      <c r="V141" s="7"/>
+    </row>
+    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -6947,8 +7611,12 @@
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
       <c r="R142" s="7"/>
-    </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S142" s="7"/>
+      <c r="T142" s="7"/>
+      <c r="U142" s="7"/>
+      <c r="V142" s="7"/>
+    </row>
+    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -6965,8 +7633,12 @@
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
       <c r="R143" s="7"/>
-    </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S143" s="7"/>
+      <c r="T143" s="7"/>
+      <c r="U143" s="7"/>
+      <c r="V143" s="7"/>
+    </row>
+    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -6983,8 +7655,12 @@
       <c r="P144" s="7"/>
       <c r="Q144" s="7"/>
       <c r="R144" s="7"/>
-    </row>
-    <row r="145" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S144" s="7"/>
+      <c r="T144" s="7"/>
+      <c r="U144" s="7"/>
+      <c r="V144" s="7"/>
+    </row>
+    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -7001,8 +7677,12 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
       <c r="R145" s="7"/>
-    </row>
-    <row r="146" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S145" s="7"/>
+      <c r="T145" s="7"/>
+      <c r="U145" s="7"/>
+      <c r="V145" s="7"/>
+    </row>
+    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -7019,8 +7699,12 @@
       <c r="P146" s="7"/>
       <c r="Q146" s="7"/>
       <c r="R146" s="7"/>
-    </row>
-    <row r="147" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S146" s="7"/>
+      <c r="T146" s="7"/>
+      <c r="U146" s="7"/>
+      <c r="V146" s="7"/>
+    </row>
+    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -7037,8 +7721,12 @@
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
       <c r="R147" s="7"/>
-    </row>
-    <row r="148" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7"/>
+    </row>
+    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -7055,8 +7743,12 @@
       <c r="P148" s="7"/>
       <c r="Q148" s="7"/>
       <c r="R148" s="7"/>
-    </row>
-    <row r="149" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S148" s="7"/>
+      <c r="T148" s="7"/>
+      <c r="U148" s="7"/>
+      <c r="V148" s="7"/>
+    </row>
+    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -7073,8 +7765,12 @@
       <c r="P149" s="7"/>
       <c r="Q149" s="7"/>
       <c r="R149" s="7"/>
-    </row>
-    <row r="150" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S149" s="7"/>
+      <c r="T149" s="7"/>
+      <c r="U149" s="7"/>
+      <c r="V149" s="7"/>
+    </row>
+    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -7091,8 +7787,12 @@
       <c r="P150" s="7"/>
       <c r="Q150" s="7"/>
       <c r="R150" s="7"/>
-    </row>
-    <row r="151" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S150" s="7"/>
+      <c r="T150" s="7"/>
+      <c r="U150" s="7"/>
+      <c r="V150" s="7"/>
+    </row>
+    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -7109,8 +7809,12 @@
       <c r="P151" s="7"/>
       <c r="Q151" s="7"/>
       <c r="R151" s="7"/>
-    </row>
-    <row r="152" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S151" s="7"/>
+      <c r="T151" s="7"/>
+      <c r="U151" s="7"/>
+      <c r="V151" s="7"/>
+    </row>
+    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -7127,8 +7831,12 @@
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
       <c r="R152" s="7"/>
-    </row>
-    <row r="153" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S152" s="7"/>
+      <c r="T152" s="7"/>
+      <c r="U152" s="7"/>
+      <c r="V152" s="7"/>
+    </row>
+    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -7145,8 +7853,12 @@
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
       <c r="R153" s="7"/>
-    </row>
-    <row r="154" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S153" s="7"/>
+      <c r="T153" s="7"/>
+      <c r="U153" s="7"/>
+      <c r="V153" s="7"/>
+    </row>
+    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -7163,8 +7875,12 @@
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
       <c r="R154" s="7"/>
-    </row>
-    <row r="155" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S154" s="7"/>
+      <c r="T154" s="7"/>
+      <c r="U154" s="7"/>
+      <c r="V154" s="7"/>
+    </row>
+    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -7181,8 +7897,12 @@
       <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
       <c r="R155" s="7"/>
-    </row>
-    <row r="156" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S155" s="7"/>
+      <c r="T155" s="7"/>
+      <c r="U155" s="7"/>
+      <c r="V155" s="7"/>
+    </row>
+    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -7199,8 +7919,12 @@
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
       <c r="R156" s="7"/>
-    </row>
-    <row r="157" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S156" s="7"/>
+      <c r="T156" s="7"/>
+      <c r="U156" s="7"/>
+      <c r="V156" s="7"/>
+    </row>
+    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -7217,8 +7941,12 @@
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
       <c r="R157" s="7"/>
-    </row>
-    <row r="158" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S157" s="7"/>
+      <c r="T157" s="7"/>
+      <c r="U157" s="7"/>
+      <c r="V157" s="7"/>
+    </row>
+    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -7235,8 +7963,12 @@
       <c r="P158" s="7"/>
       <c r="Q158" s="7"/>
       <c r="R158" s="7"/>
-    </row>
-    <row r="159" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+      <c r="U158" s="7"/>
+      <c r="V158" s="7"/>
+    </row>
+    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -7253,8 +7985,12 @@
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
       <c r="R159" s="7"/>
-    </row>
-    <row r="160" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+    </row>
+    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -7271,8 +8007,12 @@
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
-    </row>
-    <row r="161" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S160" s="7"/>
+      <c r="T160" s="7"/>
+      <c r="U160" s="7"/>
+      <c r="V160" s="7"/>
+    </row>
+    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -7289,8 +8029,12 @@
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
       <c r="R161" s="7"/>
-    </row>
-    <row r="162" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S161" s="7"/>
+      <c r="T161" s="7"/>
+      <c r="U161" s="7"/>
+      <c r="V161" s="7"/>
+    </row>
+    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7307,8 +8051,12 @@
       <c r="P162" s="7"/>
       <c r="Q162" s="7"/>
       <c r="R162" s="7"/>
-    </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S162" s="7"/>
+      <c r="T162" s="7"/>
+      <c r="U162" s="7"/>
+      <c r="V162" s="7"/>
+    </row>
+    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7325,8 +8073,12 @@
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
       <c r="R163" s="7"/>
-    </row>
-    <row r="164" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S163" s="7"/>
+      <c r="T163" s="7"/>
+      <c r="U163" s="7"/>
+      <c r="V163" s="7"/>
+    </row>
+    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7343,8 +8095,12 @@
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
       <c r="R164" s="7"/>
-    </row>
-    <row r="165" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S164" s="7"/>
+      <c r="T164" s="7"/>
+      <c r="U164" s="7"/>
+      <c r="V164" s="7"/>
+    </row>
+    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7361,8 +8117,12 @@
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
       <c r="R165" s="7"/>
-    </row>
-    <row r="166" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S165" s="7"/>
+      <c r="T165" s="7"/>
+      <c r="U165" s="7"/>
+      <c r="V165" s="7"/>
+    </row>
+    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7379,8 +8139,12 @@
       <c r="P166" s="7"/>
       <c r="Q166" s="7"/>
       <c r="R166" s="7"/>
-    </row>
-    <row r="167" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S166" s="7"/>
+      <c r="T166" s="7"/>
+      <c r="U166" s="7"/>
+      <c r="V166" s="7"/>
+    </row>
+    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7397,8 +8161,12 @@
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
       <c r="R167" s="7"/>
-    </row>
-    <row r="168" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S167" s="7"/>
+      <c r="T167" s="7"/>
+      <c r="U167" s="7"/>
+      <c r="V167" s="7"/>
+    </row>
+    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7415,8 +8183,12 @@
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
       <c r="R168" s="7"/>
-    </row>
-    <row r="169" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="U168" s="7"/>
+      <c r="V168" s="7"/>
+    </row>
+    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -7433,8 +8205,12 @@
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
       <c r="R169" s="7"/>
-    </row>
-    <row r="170" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S169" s="7"/>
+      <c r="T169" s="7"/>
+      <c r="U169" s="7"/>
+      <c r="V169" s="7"/>
+    </row>
+    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7451,8 +8227,12 @@
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
       <c r="R170" s="7"/>
-    </row>
-    <row r="171" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S170" s="7"/>
+      <c r="T170" s="7"/>
+      <c r="U170" s="7"/>
+      <c r="V170" s="7"/>
+    </row>
+    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7469,8 +8249,12 @@
       <c r="P171" s="7"/>
       <c r="Q171" s="7"/>
       <c r="R171" s="7"/>
-    </row>
-    <row r="172" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S171" s="7"/>
+      <c r="T171" s="7"/>
+      <c r="U171" s="7"/>
+      <c r="V171" s="7"/>
+    </row>
+    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7487,8 +8271,12 @@
       <c r="P172" s="7"/>
       <c r="Q172" s="7"/>
       <c r="R172" s="7"/>
-    </row>
-    <row r="173" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S172" s="7"/>
+      <c r="T172" s="7"/>
+      <c r="U172" s="7"/>
+      <c r="V172" s="7"/>
+    </row>
+    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7505,8 +8293,12 @@
       <c r="P173" s="7"/>
       <c r="Q173" s="7"/>
       <c r="R173" s="7"/>
-    </row>
-    <row r="174" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S173" s="7"/>
+      <c r="T173" s="7"/>
+      <c r="U173" s="7"/>
+      <c r="V173" s="7"/>
+    </row>
+    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7523,8 +8315,12 @@
       <c r="P174" s="7"/>
       <c r="Q174" s="7"/>
       <c r="R174" s="7"/>
-    </row>
-    <row r="175" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S174" s="7"/>
+      <c r="T174" s="7"/>
+      <c r="U174" s="7"/>
+      <c r="V174" s="7"/>
+    </row>
+    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7541,8 +8337,12 @@
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
       <c r="R175" s="7"/>
-    </row>
-    <row r="176" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S175" s="7"/>
+      <c r="T175" s="7"/>
+      <c r="U175" s="7"/>
+      <c r="V175" s="7"/>
+    </row>
+    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7559,8 +8359,12 @@
       <c r="P176" s="7"/>
       <c r="Q176" s="7"/>
       <c r="R176" s="7"/>
-    </row>
-    <row r="177" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S176" s="7"/>
+      <c r="T176" s="7"/>
+      <c r="U176" s="7"/>
+      <c r="V176" s="7"/>
+    </row>
+    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7577,8 +8381,12 @@
       <c r="P177" s="7"/>
       <c r="Q177" s="7"/>
       <c r="R177" s="7"/>
-    </row>
-    <row r="178" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S177" s="7"/>
+      <c r="T177" s="7"/>
+      <c r="U177" s="7"/>
+      <c r="V177" s="7"/>
+    </row>
+    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7595,8 +8403,12 @@
       <c r="P178" s="7"/>
       <c r="Q178" s="7"/>
       <c r="R178" s="7"/>
-    </row>
-    <row r="179" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S178" s="7"/>
+      <c r="T178" s="7"/>
+      <c r="U178" s="7"/>
+      <c r="V178" s="7"/>
+    </row>
+    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7613,8 +8425,12 @@
       <c r="P179" s="7"/>
       <c r="Q179" s="7"/>
       <c r="R179" s="7"/>
-    </row>
-    <row r="180" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S179" s="7"/>
+      <c r="T179" s="7"/>
+      <c r="U179" s="7"/>
+      <c r="V179" s="7"/>
+    </row>
+    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7631,8 +8447,12 @@
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
       <c r="R180" s="7"/>
-    </row>
-    <row r="181" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S180" s="7"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
+      <c r="V180" s="7"/>
+    </row>
+    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7649,8 +8469,12 @@
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
       <c r="R181" s="7"/>
-    </row>
-    <row r="182" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S181" s="7"/>
+      <c r="T181" s="7"/>
+      <c r="U181" s="7"/>
+      <c r="V181" s="7"/>
+    </row>
+    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7667,8 +8491,12 @@
       <c r="P182" s="7"/>
       <c r="Q182" s="7"/>
       <c r="R182" s="7"/>
-    </row>
-    <row r="183" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S182" s="7"/>
+      <c r="T182" s="7"/>
+      <c r="U182" s="7"/>
+      <c r="V182" s="7"/>
+    </row>
+    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7685,8 +8513,12 @@
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
-    </row>
-    <row r="184" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S183" s="7"/>
+      <c r="T183" s="7"/>
+      <c r="U183" s="7"/>
+      <c r="V183" s="7"/>
+    </row>
+    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7703,8 +8535,12 @@
       <c r="P184" s="7"/>
       <c r="Q184" s="7"/>
       <c r="R184" s="7"/>
-    </row>
-    <row r="185" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S184" s="7"/>
+      <c r="T184" s="7"/>
+      <c r="U184" s="7"/>
+      <c r="V184" s="7"/>
+    </row>
+    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7721,8 +8557,12 @@
       <c r="P185" s="7"/>
       <c r="Q185" s="7"/>
       <c r="R185" s="7"/>
-    </row>
-    <row r="186" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S185" s="7"/>
+      <c r="T185" s="7"/>
+      <c r="U185" s="7"/>
+      <c r="V185" s="7"/>
+    </row>
+    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7739,8 +8579,12 @@
       <c r="P186" s="7"/>
       <c r="Q186" s="7"/>
       <c r="R186" s="7"/>
-    </row>
-    <row r="187" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S186" s="7"/>
+      <c r="T186" s="7"/>
+      <c r="U186" s="7"/>
+      <c r="V186" s="7"/>
+    </row>
+    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7757,8 +8601,12 @@
       <c r="P187" s="7"/>
       <c r="Q187" s="7"/>
       <c r="R187" s="7"/>
-    </row>
-    <row r="188" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S187" s="7"/>
+      <c r="T187" s="7"/>
+      <c r="U187" s="7"/>
+      <c r="V187" s="7"/>
+    </row>
+    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7775,8 +8623,12 @@
       <c r="P188" s="7"/>
       <c r="Q188" s="7"/>
       <c r="R188" s="7"/>
-    </row>
-    <row r="189" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S188" s="7"/>
+      <c r="T188" s="7"/>
+      <c r="U188" s="7"/>
+      <c r="V188" s="7"/>
+    </row>
+    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7793,8 +8645,12 @@
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
       <c r="R189" s="7"/>
-    </row>
-    <row r="190" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S189" s="7"/>
+      <c r="T189" s="7"/>
+      <c r="U189" s="7"/>
+      <c r="V189" s="7"/>
+    </row>
+    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7811,8 +8667,12 @@
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
       <c r="R190" s="7"/>
-    </row>
-    <row r="191" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S190" s="7"/>
+      <c r="T190" s="7"/>
+      <c r="U190" s="7"/>
+      <c r="V190" s="7"/>
+    </row>
+    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7829,8 +8689,12 @@
       <c r="P191" s="7"/>
       <c r="Q191" s="7"/>
       <c r="R191" s="7"/>
-    </row>
-    <row r="192" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S191" s="7"/>
+      <c r="T191" s="7"/>
+      <c r="U191" s="7"/>
+      <c r="V191" s="7"/>
+    </row>
+    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7847,8 +8711,12 @@
       <c r="P192" s="7"/>
       <c r="Q192" s="7"/>
       <c r="R192" s="7"/>
-    </row>
-    <row r="193" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S192" s="7"/>
+      <c r="T192" s="7"/>
+      <c r="U192" s="7"/>
+      <c r="V192" s="7"/>
+    </row>
+    <row r="193" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -7865,8 +8733,12 @@
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
       <c r="R193" s="7"/>
-    </row>
-    <row r="194" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S193" s="7"/>
+      <c r="T193" s="7"/>
+      <c r="U193" s="7"/>
+      <c r="V193" s="7"/>
+    </row>
+    <row r="194" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -7883,8 +8755,12 @@
       <c r="P194" s="7"/>
       <c r="Q194" s="7"/>
       <c r="R194" s="7"/>
-    </row>
-    <row r="195" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S194" s="7"/>
+      <c r="T194" s="7"/>
+      <c r="U194" s="7"/>
+      <c r="V194" s="7"/>
+    </row>
+    <row r="195" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -7901,8 +8777,12 @@
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
       <c r="R195" s="7"/>
-    </row>
-    <row r="196" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S195" s="7"/>
+      <c r="T195" s="7"/>
+      <c r="U195" s="7"/>
+      <c r="V195" s="7"/>
+    </row>
+    <row r="196" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7919,8 +8799,12 @@
       <c r="P196" s="7"/>
       <c r="Q196" s="7"/>
       <c r="R196" s="7"/>
-    </row>
-    <row r="197" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S196" s="7"/>
+      <c r="T196" s="7"/>
+      <c r="U196" s="7"/>
+      <c r="V196" s="7"/>
+    </row>
+    <row r="197" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7937,8 +8821,12 @@
       <c r="P197" s="7"/>
       <c r="Q197" s="7"/>
       <c r="R197" s="7"/>
-    </row>
-    <row r="198" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S197" s="7"/>
+      <c r="T197" s="7"/>
+      <c r="U197" s="7"/>
+      <c r="V197" s="7"/>
+    </row>
+    <row r="198" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7955,8 +8843,12 @@
       <c r="P198" s="7"/>
       <c r="Q198" s="7"/>
       <c r="R198" s="7"/>
-    </row>
-    <row r="199" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S198" s="7"/>
+      <c r="T198" s="7"/>
+      <c r="U198" s="7"/>
+      <c r="V198" s="7"/>
+    </row>
+    <row r="199" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7973,8 +8865,12 @@
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
       <c r="R199" s="7"/>
-    </row>
-    <row r="200" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S199" s="7"/>
+      <c r="T199" s="7"/>
+      <c r="U199" s="7"/>
+      <c r="V199" s="7"/>
+    </row>
+    <row r="200" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7991,8 +8887,12 @@
       <c r="P200" s="7"/>
       <c r="Q200" s="7"/>
       <c r="R200" s="7"/>
-    </row>
-    <row r="201" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S200" s="7"/>
+      <c r="T200" s="7"/>
+      <c r="U200" s="7"/>
+      <c r="V200" s="7"/>
+    </row>
+    <row r="201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -8009,8 +8909,12 @@
       <c r="P201" s="7"/>
       <c r="Q201" s="7"/>
       <c r="R201" s="7"/>
-    </row>
-    <row r="202" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S201" s="7"/>
+      <c r="T201" s="7"/>
+      <c r="U201" s="7"/>
+      <c r="V201" s="7"/>
+    </row>
+    <row r="202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -8027,8 +8931,12 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
       <c r="R202" s="7"/>
-    </row>
-    <row r="203" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S202" s="7"/>
+      <c r="T202" s="7"/>
+      <c r="U202" s="7"/>
+      <c r="V202" s="7"/>
+    </row>
+    <row r="203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -8045,8 +8953,12 @@
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
       <c r="R203" s="7"/>
-    </row>
-    <row r="204" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S203" s="7"/>
+      <c r="T203" s="7"/>
+      <c r="U203" s="7"/>
+      <c r="V203" s="7"/>
+    </row>
+    <row r="204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -8063,8 +8975,12 @@
       <c r="P204" s="7"/>
       <c r="Q204" s="7"/>
       <c r="R204" s="7"/>
-    </row>
-    <row r="205" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S204" s="7"/>
+      <c r="T204" s="7"/>
+      <c r="U204" s="7"/>
+      <c r="V204" s="7"/>
+    </row>
+    <row r="205" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -8081,8 +8997,12 @@
       <c r="P205" s="7"/>
       <c r="Q205" s="7"/>
       <c r="R205" s="7"/>
-    </row>
-    <row r="206" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S205" s="7"/>
+      <c r="T205" s="7"/>
+      <c r="U205" s="7"/>
+      <c r="V205" s="7"/>
+    </row>
+    <row r="206" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -8099,8 +9019,12 @@
       <c r="P206" s="7"/>
       <c r="Q206" s="7"/>
       <c r="R206" s="7"/>
-    </row>
-    <row r="207" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S206" s="7"/>
+      <c r="T206" s="7"/>
+      <c r="U206" s="7"/>
+      <c r="V206" s="7"/>
+    </row>
+    <row r="207" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -8117,8 +9041,12 @@
       <c r="P207" s="7"/>
       <c r="Q207" s="7"/>
       <c r="R207" s="7"/>
-    </row>
-    <row r="208" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S207" s="7"/>
+      <c r="T207" s="7"/>
+      <c r="U207" s="7"/>
+      <c r="V207" s="7"/>
+    </row>
+    <row r="208" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -8135,8 +9063,12 @@
       <c r="P208" s="7"/>
       <c r="Q208" s="7"/>
       <c r="R208" s="7"/>
-    </row>
-    <row r="209" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S208" s="7"/>
+      <c r="T208" s="7"/>
+      <c r="U208" s="7"/>
+      <c r="V208" s="7"/>
+    </row>
+    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -8153,8 +9085,12 @@
       <c r="P209" s="7"/>
       <c r="Q209" s="7"/>
       <c r="R209" s="7"/>
-    </row>
-    <row r="210" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S209" s="7"/>
+      <c r="T209" s="7"/>
+      <c r="U209" s="7"/>
+      <c r="V209" s="7"/>
+    </row>
+    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -8171,8 +9107,12 @@
       <c r="P210" s="7"/>
       <c r="Q210" s="7"/>
       <c r="R210" s="7"/>
-    </row>
-    <row r="211" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S210" s="7"/>
+      <c r="T210" s="7"/>
+      <c r="U210" s="7"/>
+      <c r="V210" s="7"/>
+    </row>
+    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -8189,8 +9129,12 @@
       <c r="P211" s="7"/>
       <c r="Q211" s="7"/>
       <c r="R211" s="7"/>
-    </row>
-    <row r="212" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S211" s="7"/>
+      <c r="T211" s="7"/>
+      <c r="U211" s="7"/>
+      <c r="V211" s="7"/>
+    </row>
+    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -8207,8 +9151,12 @@
       <c r="P212" s="7"/>
       <c r="Q212" s="7"/>
       <c r="R212" s="7"/>
-    </row>
-    <row r="213" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S212" s="7"/>
+      <c r="T212" s="7"/>
+      <c r="U212" s="7"/>
+      <c r="V212" s="7"/>
+    </row>
+    <row r="213" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -8225,8 +9173,12 @@
       <c r="P213" s="7"/>
       <c r="Q213" s="7"/>
       <c r="R213" s="7"/>
-    </row>
-    <row r="214" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S213" s="7"/>
+      <c r="T213" s="7"/>
+      <c r="U213" s="7"/>
+      <c r="V213" s="7"/>
+    </row>
+    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -8243,8 +9195,12 @@
       <c r="P214" s="7"/>
       <c r="Q214" s="7"/>
       <c r="R214" s="7"/>
-    </row>
-    <row r="215" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S214" s="7"/>
+      <c r="T214" s="7"/>
+      <c r="U214" s="7"/>
+      <c r="V214" s="7"/>
+    </row>
+    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -8261,8 +9217,12 @@
       <c r="P215" s="7"/>
       <c r="Q215" s="7"/>
       <c r="R215" s="7"/>
-    </row>
-    <row r="216" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S215" s="7"/>
+      <c r="T215" s="7"/>
+      <c r="U215" s="7"/>
+      <c r="V215" s="7"/>
+    </row>
+    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -8279,8 +9239,12 @@
       <c r="P216" s="7"/>
       <c r="Q216" s="7"/>
       <c r="R216" s="7"/>
-    </row>
-    <row r="217" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S216" s="7"/>
+      <c r="T216" s="7"/>
+      <c r="U216" s="7"/>
+      <c r="V216" s="7"/>
+    </row>
+    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -8297,8 +9261,12 @@
       <c r="P217" s="7"/>
       <c r="Q217" s="7"/>
       <c r="R217" s="7"/>
-    </row>
-    <row r="218" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S217" s="7"/>
+      <c r="T217" s="7"/>
+      <c r="U217" s="7"/>
+      <c r="V217" s="7"/>
+    </row>
+    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -8315,8 +9283,12 @@
       <c r="P218" s="7"/>
       <c r="Q218" s="7"/>
       <c r="R218" s="7"/>
-    </row>
-    <row r="219" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S218" s="7"/>
+      <c r="T218" s="7"/>
+      <c r="U218" s="7"/>
+      <c r="V218" s="7"/>
+    </row>
+    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -8333,8 +9305,12 @@
       <c r="P219" s="7"/>
       <c r="Q219" s="7"/>
       <c r="R219" s="7"/>
-    </row>
-    <row r="220" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S219" s="7"/>
+      <c r="T219" s="7"/>
+      <c r="U219" s="7"/>
+      <c r="V219" s="7"/>
+    </row>
+    <row r="220" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -8351,8 +9327,12 @@
       <c r="P220" s="7"/>
       <c r="Q220" s="7"/>
       <c r="R220" s="7"/>
-    </row>
-    <row r="221" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S220" s="7"/>
+      <c r="T220" s="7"/>
+      <c r="U220" s="7"/>
+      <c r="V220" s="7"/>
+    </row>
+    <row r="221" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -8369,8 +9349,12 @@
       <c r="P221" s="7"/>
       <c r="Q221" s="7"/>
       <c r="R221" s="7"/>
-    </row>
-    <row r="222" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S221" s="7"/>
+      <c r="T221" s="7"/>
+      <c r="U221" s="7"/>
+      <c r="V221" s="7"/>
+    </row>
+    <row r="222" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -8387,8 +9371,12 @@
       <c r="P222" s="7"/>
       <c r="Q222" s="7"/>
       <c r="R222" s="7"/>
-    </row>
-    <row r="223" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S222" s="7"/>
+      <c r="T222" s="7"/>
+      <c r="U222" s="7"/>
+      <c r="V222" s="7"/>
+    </row>
+    <row r="223" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -8405,8 +9393,12 @@
       <c r="P223" s="7"/>
       <c r="Q223" s="7"/>
       <c r="R223" s="7"/>
-    </row>
-    <row r="224" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S223" s="7"/>
+      <c r="T223" s="7"/>
+      <c r="U223" s="7"/>
+      <c r="V223" s="7"/>
+    </row>
+    <row r="224" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -8423,8 +9415,12 @@
       <c r="P224" s="7"/>
       <c r="Q224" s="7"/>
       <c r="R224" s="7"/>
-    </row>
-    <row r="225" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S224" s="7"/>
+      <c r="T224" s="7"/>
+      <c r="U224" s="7"/>
+      <c r="V224" s="7"/>
+    </row>
+    <row r="225" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -8441,8 +9437,12 @@
       <c r="P225" s="7"/>
       <c r="Q225" s="7"/>
       <c r="R225" s="7"/>
-    </row>
-    <row r="226" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S225" s="7"/>
+      <c r="T225" s="7"/>
+      <c r="U225" s="7"/>
+      <c r="V225" s="7"/>
+    </row>
+    <row r="226" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -8459,8 +9459,12 @@
       <c r="P226" s="7"/>
       <c r="Q226" s="7"/>
       <c r="R226" s="7"/>
-    </row>
-    <row r="227" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S226" s="7"/>
+      <c r="T226" s="7"/>
+      <c r="U226" s="7"/>
+      <c r="V226" s="7"/>
+    </row>
+    <row r="227" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -8477,8 +9481,12 @@
       <c r="P227" s="7"/>
       <c r="Q227" s="7"/>
       <c r="R227" s="7"/>
-    </row>
-    <row r="228" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S227" s="7"/>
+      <c r="T227" s="7"/>
+      <c r="U227" s="7"/>
+      <c r="V227" s="7"/>
+    </row>
+    <row r="228" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -8495,8 +9503,12 @@
       <c r="P228" s="7"/>
       <c r="Q228" s="7"/>
       <c r="R228" s="7"/>
-    </row>
-    <row r="229" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S228" s="7"/>
+      <c r="T228" s="7"/>
+      <c r="U228" s="7"/>
+      <c r="V228" s="7"/>
+    </row>
+    <row r="229" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -8513,8 +9525,12 @@
       <c r="P229" s="7"/>
       <c r="Q229" s="7"/>
       <c r="R229" s="7"/>
-    </row>
-    <row r="230" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S229" s="7"/>
+      <c r="T229" s="7"/>
+      <c r="U229" s="7"/>
+      <c r="V229" s="7"/>
+    </row>
+    <row r="230" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -8531,8 +9547,12 @@
       <c r="P230" s="7"/>
       <c r="Q230" s="7"/>
       <c r="R230" s="7"/>
-    </row>
-    <row r="231" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S230" s="7"/>
+      <c r="T230" s="7"/>
+      <c r="U230" s="7"/>
+      <c r="V230" s="7"/>
+    </row>
+    <row r="231" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -8549,8 +9569,12 @@
       <c r="P231" s="7"/>
       <c r="Q231" s="7"/>
       <c r="R231" s="7"/>
-    </row>
-    <row r="232" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S231" s="7"/>
+      <c r="T231" s="7"/>
+      <c r="U231" s="7"/>
+      <c r="V231" s="7"/>
+    </row>
+    <row r="232" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -8567,8 +9591,12 @@
       <c r="P232" s="7"/>
       <c r="Q232" s="7"/>
       <c r="R232" s="7"/>
-    </row>
-    <row r="233" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S232" s="7"/>
+      <c r="T232" s="7"/>
+      <c r="U232" s="7"/>
+      <c r="V232" s="7"/>
+    </row>
+    <row r="233" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8585,8 +9613,12 @@
       <c r="P233" s="7"/>
       <c r="Q233" s="7"/>
       <c r="R233" s="7"/>
-    </row>
-    <row r="234" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S233" s="7"/>
+      <c r="T233" s="7"/>
+      <c r="U233" s="7"/>
+      <c r="V233" s="7"/>
+    </row>
+    <row r="234" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -8603,8 +9635,12 @@
       <c r="P234" s="7"/>
       <c r="Q234" s="7"/>
       <c r="R234" s="7"/>
-    </row>
-    <row r="235" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S234" s="7"/>
+      <c r="T234" s="7"/>
+      <c r="U234" s="7"/>
+      <c r="V234" s="7"/>
+    </row>
+    <row r="235" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -8621,8 +9657,12 @@
       <c r="P235" s="7"/>
       <c r="Q235" s="7"/>
       <c r="R235" s="7"/>
-    </row>
-    <row r="236" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S235" s="7"/>
+      <c r="T235" s="7"/>
+      <c r="U235" s="7"/>
+      <c r="V235" s="7"/>
+    </row>
+    <row r="236" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -8639,8 +9679,12 @@
       <c r="P236" s="7"/>
       <c r="Q236" s="7"/>
       <c r="R236" s="7"/>
-    </row>
-    <row r="237" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S236" s="7"/>
+      <c r="T236" s="7"/>
+      <c r="U236" s="7"/>
+      <c r="V236" s="7"/>
+    </row>
+    <row r="237" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -8657,8 +9701,12 @@
       <c r="P237" s="7"/>
       <c r="Q237" s="7"/>
       <c r="R237" s="7"/>
-    </row>
-    <row r="238" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S237" s="7"/>
+      <c r="T237" s="7"/>
+      <c r="U237" s="7"/>
+      <c r="V237" s="7"/>
+    </row>
+    <row r="238" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -8675,8 +9723,12 @@
       <c r="P238" s="7"/>
       <c r="Q238" s="7"/>
       <c r="R238" s="7"/>
-    </row>
-    <row r="239" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S238" s="7"/>
+      <c r="T238" s="7"/>
+      <c r="U238" s="7"/>
+      <c r="V238" s="7"/>
+    </row>
+    <row r="239" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -8693,8 +9745,12 @@
       <c r="P239" s="7"/>
       <c r="Q239" s="7"/>
       <c r="R239" s="7"/>
-    </row>
-    <row r="240" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S239" s="7"/>
+      <c r="T239" s="7"/>
+      <c r="U239" s="7"/>
+      <c r="V239" s="7"/>
+    </row>
+    <row r="240" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -8711,8 +9767,12 @@
       <c r="P240" s="7"/>
       <c r="Q240" s="7"/>
       <c r="R240" s="7"/>
-    </row>
-    <row r="241" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S240" s="7"/>
+      <c r="T240" s="7"/>
+      <c r="U240" s="7"/>
+      <c r="V240" s="7"/>
+    </row>
+    <row r="241" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -8729,8 +9789,12 @@
       <c r="P241" s="7"/>
       <c r="Q241" s="7"/>
       <c r="R241" s="7"/>
-    </row>
-    <row r="242" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S241" s="7"/>
+      <c r="T241" s="7"/>
+      <c r="U241" s="7"/>
+      <c r="V241" s="7"/>
+    </row>
+    <row r="242" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -8747,8 +9811,12 @@
       <c r="P242" s="7"/>
       <c r="Q242" s="7"/>
       <c r="R242" s="7"/>
-    </row>
-    <row r="243" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S242" s="7"/>
+      <c r="T242" s="7"/>
+      <c r="U242" s="7"/>
+      <c r="V242" s="7"/>
+    </row>
+    <row r="243" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -8765,8 +9833,12 @@
       <c r="P243" s="7"/>
       <c r="Q243" s="7"/>
       <c r="R243" s="7"/>
-    </row>
-    <row r="244" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S243" s="7"/>
+      <c r="T243" s="7"/>
+      <c r="U243" s="7"/>
+      <c r="V243" s="7"/>
+    </row>
+    <row r="244" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -8783,8 +9855,12 @@
       <c r="P244" s="7"/>
       <c r="Q244" s="7"/>
       <c r="R244" s="7"/>
-    </row>
-    <row r="245" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S244" s="7"/>
+      <c r="T244" s="7"/>
+      <c r="U244" s="7"/>
+      <c r="V244" s="7"/>
+    </row>
+    <row r="245" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -8801,8 +9877,12 @@
       <c r="P245" s="7"/>
       <c r="Q245" s="7"/>
       <c r="R245" s="7"/>
-    </row>
-    <row r="246" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S245" s="7"/>
+      <c r="T245" s="7"/>
+      <c r="U245" s="7"/>
+      <c r="V245" s="7"/>
+    </row>
+    <row r="246" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -8819,8 +9899,12 @@
       <c r="P246" s="7"/>
       <c r="Q246" s="7"/>
       <c r="R246" s="7"/>
-    </row>
-    <row r="247" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S246" s="7"/>
+      <c r="T246" s="7"/>
+      <c r="U246" s="7"/>
+      <c r="V246" s="7"/>
+    </row>
+    <row r="247" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -8837,8 +9921,12 @@
       <c r="P247" s="7"/>
       <c r="Q247" s="7"/>
       <c r="R247" s="7"/>
-    </row>
-    <row r="248" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S247" s="7"/>
+      <c r="T247" s="7"/>
+      <c r="U247" s="7"/>
+      <c r="V247" s="7"/>
+    </row>
+    <row r="248" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -8855,6 +9943,10 @@
       <c r="P248" s="7"/>
       <c r="Q248" s="7"/>
       <c r="R248" s="7"/>
+      <c r="S248" s="7"/>
+      <c r="T248" s="7"/>
+      <c r="U248" s="7"/>
+      <c r="V248" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8889,7 +9981,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69">
@@ -8941,7 +10033,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="71"/>
@@ -8955,7 +10047,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -8969,7 +10061,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -9008,185 +10100,185 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M9" s="72" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M10" s="72" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M13" s="72" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M14" s="72" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M15" s="72" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M16" s="72" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M19" s="72" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M20" s="72" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M21" s="72" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M23" s="72" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M24" s="72" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M26" s="72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M27" s="72" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M28" s="72" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M29" s="72" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M32" s="72" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M33" s="72" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M34" s="72" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -9197,12 +10289,12 @@
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="M35" s="72" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -9213,17 +10305,17 @@
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
       <c r="M36" s="72" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -9234,12 +10326,12 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="M39" s="72" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -9250,49 +10342,49 @@
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="M40" s="72" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M41" s="72" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M42" s="72" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M43" s="72" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M44" s="72" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -9303,7 +10395,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -9314,12 +10406,12 @@
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="M48" s="72" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C49" s="63"/>
       <c r="D49" s="23"/>
@@ -9330,12 +10422,12 @@
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="M49" s="72" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -9346,12 +10438,12 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="M50" s="72" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -9362,12 +10454,12 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="M51" s="72" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -9378,12 +10470,12 @@
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="M52" s="72" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -9394,19 +10486,19 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="M53" s="72" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -9417,12 +10509,12 @@
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="M55" s="72" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -9433,12 +10525,12 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="M56" s="72" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -9449,12 +10541,12 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="M57" s="72" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -9465,7 +10557,7 @@
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="M58" s="72" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -9494,7 +10586,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -9503,108 +10595,108 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F8">
         <f>F6+F7</f>
         <v>0</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F20">
         <f>F18-F19</f>
@@ -9613,7 +10705,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
@@ -9623,45 +10715,45 @@
         <v>0</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H26" s="72" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="73" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
@@ -9678,17 +10770,17 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F37">
         <f>F35+F36</f>
@@ -9697,12 +10789,12 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="73" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
@@ -9712,7 +10804,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="72" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -9744,7 +10836,7 @@
     <row r="2" spans="1:41" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -9791,21 +10883,21 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E4" s="30"/>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E5" s="30"/>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J5" s="31" t="e">
         <f ca="1">V63</f>
@@ -9814,11 +10906,11 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E6" s="32"/>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J6" s="33" t="e">
         <f ca="1">J5/J4-1</f>
@@ -9830,7 +10922,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -9859,25 +10951,25 @@
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="36" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="G10" s="36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="L10" s="36" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
       <c r="Q10" s="36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
@@ -9886,75 +10978,75 @@
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12" s="32">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E13" s="32">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E14" s="32">
         <v>2</v>
@@ -9962,94 +11054,94 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E15" s="32">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J15" s="38"/>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O15" s="38"/>
       <c r="Q15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="T15" s="38"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E16" s="32">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J16" s="38"/>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O16" s="38"/>
       <c r="Q16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="T16" s="38"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E19" s="38">
         <f>CHOOSE(E14,J19,O19,T19)</f>
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J19" s="38"/>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O19" s="38"/>
       <c r="Q19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="T19" s="38"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E20" s="38">
         <f>CHOOSE(E15,J20,O20,T20)</f>
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J20" s="38"/>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O20" s="38"/>
       <c r="Q20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="T20" s="38"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E21" s="38">
         <f>CHOOSE(E16,J21,O21,T21)</f>
@@ -10064,7 +11156,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -10136,7 +11228,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -10187,7 +11279,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C27" s="41"/>
       <c r="G27" s="42"/>
@@ -10254,7 +11346,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C28" s="41"/>
       <c r="I28" s="20"/>
@@ -10274,7 +11366,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C29" s="41"/>
       <c r="I29" s="20"/>
@@ -10294,7 +11386,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C30" s="41"/>
       <c r="I30" s="20"/>
@@ -10314,7 +11406,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -10365,7 +11457,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G33" s="43" t="e">
         <f>G32/G26</f>
@@ -10434,7 +11526,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M34" s="44"/>
       <c r="N34" s="44"/>
@@ -10449,7 +11541,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M35" s="44"/>
       <c r="N35" s="44"/>
@@ -10464,7 +11556,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M36" s="44"/>
       <c r="N36" s="44"/>
@@ -10479,7 +11571,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -10530,7 +11622,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="41" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G39" s="43" t="e">
         <f t="shared" ref="G39:L39" si="6">G38/G32</f>
@@ -10572,7 +11664,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="45" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
@@ -10645,7 +11737,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -10696,7 +11788,7 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
@@ -10739,7 +11831,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -10790,7 +11882,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G47" s="49" t="e">
         <f t="shared" ref="G47:L47" si="11">G46/G26</f>
@@ -10829,7 +11921,7 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -10880,7 +11972,7 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G50" s="49" t="e">
         <f t="shared" ref="G50:L50" si="13">G49/G26</f>
@@ -10919,7 +12011,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
@@ -10992,7 +12084,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="54" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
@@ -11047,7 +12139,7 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M54">
         <f>YEARFRAC(E5,E6)</f>
@@ -11092,7 +12184,7 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -11105,7 +12197,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -11118,7 +12210,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -11146,7 +12238,7 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="60" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
@@ -11174,7 +12266,7 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -11184,7 +12276,7 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -11209,7 +12301,7 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -11222,7 +12314,7 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -11247,7 +12339,7 @@
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="V63" s="63" t="e">
         <f ca="1">V61/V62</f>
@@ -11259,7 +12351,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
@@ -11284,20 +12376,20 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B69" s="64"/>
-      <c r="C69" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="76"/>
+      <c r="C69" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="77"/>
     </row>
     <row r="70" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="77" t="s">
-        <v>158</v>
+      <c r="B70" s="78" t="s">
+        <v>153</v>
       </c>
       <c r="C70" s="65"/>
       <c r="D70" s="66"/>
@@ -11309,7 +12401,7 @@
       <c r="J70" s="66"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="77"/>
+      <c r="B71" s="78"/>
       <c r="C71" s="67"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -11320,7 +12412,7 @@
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="77"/>
+      <c r="B72" s="78"/>
       <c r="C72" s="67"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
@@ -11331,7 +12423,7 @@
       <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="77"/>
+      <c r="B73" s="78"/>
       <c r="C73" s="67"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
@@ -11342,7 +12434,7 @@
       <c r="J73" s="24"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="77"/>
+      <c r="B74" s="78"/>
       <c r="C74" s="67"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -11353,7 +12445,7 @@
       <c r="J74" s="24"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="77"/>
+      <c r="B75" s="78"/>
       <c r="C75" s="67"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
@@ -11364,7 +12456,7 @@
       <c r="J75" s="24"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="77"/>
+      <c r="B76" s="78"/>
       <c r="C76" s="67"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -11375,7 +12467,7 @@
       <c r="J76" s="24"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B77" s="78"/>
+      <c r="B77" s="79"/>
       <c r="C77" s="67"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>

--- a/ANF.xlsx
+++ b/ANF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4F5C5-F4FA-433A-8962-DD56AEB107E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC47D9-9940-46AE-84FE-C6077B7693EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{5386E427-DDBF-4556-BEE6-790EAB42F0A7}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{5386E427-DDBF-4556-BEE6-790EAB42F0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1516,6 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,7 +1529,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1867,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC40C0-B144-4655-82AF-8123A26C51E9}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>97.25</v>
+        <v>96.12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="I4" s="2">
         <f>I2*I3</f>
-        <v>4786.0614999999998</v>
+        <v>4730.4496799999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="I7" s="2">
         <f>I4+I6-I5</f>
-        <v>4178.4925000000003</v>
+        <v>4122.8806800000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,11 +2098,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2C5BFC-961F-4D88-9AA3-E79ECCFC9F4B}">
   <dimension ref="A1:AL248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,52 +4145,52 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="80">
+      <c r="G39" s="76">
         <f>G17/C17-1</f>
         <v>0.22097766251910911</v>
       </c>
-      <c r="H39" s="80">
+      <c r="H39" s="76">
         <f>H17/D17-1</f>
         <v>0.21235907606284332</v>
       </c>
-      <c r="I39" s="80">
+      <c r="I39" s="76">
         <f>I17/E17-1</f>
         <v>0.14438709201074174</v>
       </c>
-      <c r="J39" s="80">
+      <c r="J39" s="76">
         <f>J17/F17-1</f>
         <v>9.0859222235146531E-2</v>
       </c>
-      <c r="K39" s="80">
+      <c r="K39" s="76">
         <f>K17/G17-1</f>
         <v>7.5025716888893257E-2</v>
       </c>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="80">
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76">
         <f t="shared" ref="Q39:T39" si="32">Q17/P17-1</f>
         <v>9.1818939202126248E-3</v>
       </c>
-      <c r="R39" s="80">
+      <c r="R39" s="76">
         <f t="shared" si="32"/>
         <v>-0.137366539399013</v>
       </c>
-      <c r="S39" s="80">
+      <c r="S39" s="76">
         <f t="shared" si="32"/>
         <v>0.18793978595910144</v>
       </c>
-      <c r="T39" s="80">
+      <c r="T39" s="76">
         <f t="shared" si="32"/>
         <v>-4.0446911845825051E-3</v>
       </c>
-      <c r="U39" s="80">
+      <c r="U39" s="76">
         <f>U17/T17-1</f>
         <v>0.15764338918439869</v>
       </c>
-      <c r="V39" s="80">
+      <c r="V39" s="76">
         <f>V17/U17-1</f>
         <v>0.15602905802049549</v>
       </c>
@@ -12376,19 +12376,19 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B69" s="64"/>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="78"/>
     </row>
     <row r="70" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="79" t="s">
         <v>153</v>
       </c>
       <c r="C70" s="65"/>
@@ -12401,7 +12401,7 @@
       <c r="J70" s="66"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="78"/>
+      <c r="B71" s="79"/>
       <c r="C71" s="67"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -12412,7 +12412,7 @@
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="78"/>
+      <c r="B72" s="79"/>
       <c r="C72" s="67"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
@@ -12423,7 +12423,7 @@
       <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="78"/>
+      <c r="B73" s="79"/>
       <c r="C73" s="67"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
@@ -12434,7 +12434,7 @@
       <c r="J73" s="24"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="78"/>
+      <c r="B74" s="79"/>
       <c r="C74" s="67"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -12445,7 +12445,7 @@
       <c r="J74" s="24"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="78"/>
+      <c r="B75" s="79"/>
       <c r="C75" s="67"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
@@ -12456,7 +12456,7 @@
       <c r="J75" s="24"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="78"/>
+      <c r="B76" s="79"/>
       <c r="C76" s="67"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -12467,7 +12467,7 @@
       <c r="J76" s="24"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B77" s="79"/>
+      <c r="B77" s="80"/>
       <c r="C77" s="67"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>

--- a/ANF.xlsx
+++ b/ANF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC47D9-9940-46AE-84FE-C6077B7693EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ECBECD-E748-487B-B222-3E1E5EE38865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{5386E427-DDBF-4556-BEE6-790EAB42F0A7}"/>
+    <workbookView xWindow="225" yWindow="3900" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{5386E427-DDBF-4556-BEE6-790EAB42F0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1010,9 +1010,6 @@
     <t>Other Current Liabilities</t>
   </si>
   <si>
-    <t>Q126</t>
-  </si>
-  <si>
     <t>Q125</t>
   </si>
   <si>
@@ -1025,25 +1022,28 @@
     <t>Q425</t>
   </si>
   <si>
-    <t>Q226</t>
-  </si>
-  <si>
-    <t>Q326</t>
-  </si>
-  <si>
-    <t>Q426</t>
-  </si>
-  <si>
     <t>FY25</t>
   </si>
   <si>
-    <t>FY26</t>
-  </si>
-  <si>
     <t>Outlook: FY25</t>
   </si>
   <si>
     <t>Rev Growth 3-6%, OM 12,5 -13,5%</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>FY18</t>
   </si>
 </sst>
 </file>
@@ -1867,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC40C0-B144-4655-82AF-8123A26C51E9}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>96.12</v>
+        <v>96.69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1901,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="7">
-        <v>49.213999999999999</v>
+        <v>47.55</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="I4" s="2">
         <f>I2*I3</f>
-        <v>4730.4496799999997</v>
+        <v>4597.6094999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1933,11 +1933,11 @@
         <v>5</v>
       </c>
       <c r="I5" s="2">
-        <f>510.563+97.006</f>
-        <v>607.56899999999996</v>
+        <f>572.73+30.795</f>
+        <v>603.52499999999998</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="I7" s="2">
         <f>I4+I6-I5</f>
-        <v>4122.8806800000002</v>
+        <v>3994.0844999999995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2078,12 +2078,12 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2098,11 +2098,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2C5BFC-961F-4D88-9AA3-E79ECCFC9F4B}">
   <dimension ref="A1:AL248"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,65 +2118,65 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>303</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="W2" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,9 @@
       <c r="K8" s="7">
         <v>874.80399999999997</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <v>974.2</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2443,7 +2445,9 @@
       <c r="K9" s="7">
         <v>185.036</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7">
+        <v>197.21</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2501,7 +2505,9 @@
       <c r="K10" s="7">
         <v>37.470999999999997</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <v>37.15</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2563,7 +2569,9 @@
       <c r="K11" s="7">
         <v>547.947</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7">
+        <v>55.868000000000002</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2731,7 +2739,9 @@
       <c r="K14" s="7">
         <v>549.36400000000003</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7">
+        <v>656.69200000000001</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -2904,7 +2914,9 @@
       <c r="K17" s="8">
         <v>1097.3109999999999</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="8">
+        <v>1208.56</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="7"/>
@@ -2967,7 +2979,9 @@
       <c r="K18" s="7">
         <v>417.13299999999998</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>451.59</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3018,7 +3032,7 @@
         <v>677.45699999999999</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:K19" si="3">H17-H18</f>
+        <f t="shared" ref="H19:L19" si="3">H17-H18</f>
         <v>736.26200000000017</v>
       </c>
       <c r="I19" s="7">
@@ -3033,7 +3047,10 @@
         <f t="shared" si="3"/>
         <v>680.17799999999988</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="7">
+        <f t="shared" si="3"/>
+        <v>756.97</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3098,7 +3115,9 @@
       <c r="K20" s="7">
         <v>399.93700000000001</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7">
+        <v>375.35599999999999</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3155,7 +3174,9 @@
       <c r="K21" s="7">
         <v>174.92500000000001</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="7">
+        <v>175.32499999999999</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3212,7 +3233,9 @@
       <c r="K22" s="7">
         <v>-3.7829999999999999</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7">
+        <v>0.36899999999999999</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3266,7 +3289,7 @@
         <v>129.84900000000002</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:K23" si="12">H19-H20-H21+H22</f>
+        <f t="shared" ref="H23:L23" si="12">H19-H20-H21+H22</f>
         <v>175.62500000000017</v>
       </c>
       <c r="I23" s="7">
@@ -3281,7 +3304,10 @@
         <f t="shared" si="12"/>
         <v>101.53299999999986</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7">
+        <f t="shared" si="12"/>
+        <v>206.65800000000004</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -3345,7 +3371,9 @@
       <c r="K24" s="7">
         <v>0.66100000000000003</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7">
+        <v>0.62</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -3402,7 +3430,9 @@
       <c r="K25" s="7">
         <v>7.444</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="7">
+        <v>3.0939999999999999</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -3453,7 +3483,7 @@
         <v>134.85200000000003</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" ref="H26:K26" si="16">H23-H24+H25</f>
+        <f t="shared" ref="H26:L26" si="16">H23-H24+H25</f>
         <v>180.82800000000017</v>
       </c>
       <c r="I26" s="7">
@@ -3468,7 +3498,10 @@
         <f t="shared" si="16"/>
         <v>108.31599999999986</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="7">
+        <f t="shared" si="16"/>
+        <v>209.13200000000003</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -3532,7 +3565,9 @@
       <c r="K27" s="7">
         <v>26.577000000000002</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="7">
+        <v>65.744</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -3583,7 +3618,7 @@
         <v>115.05800000000004</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28:K28" si="20">H26-H27</f>
+        <f t="shared" ref="H28:L28" si="20">H26-H27</f>
         <v>135.37900000000019</v>
       </c>
       <c r="I28" s="7">
@@ -3598,7 +3633,10 @@
         <f t="shared" si="20"/>
         <v>81.738999999999862</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7">
+        <f t="shared" si="20"/>
+        <v>143.38800000000003</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -3662,7 +3700,9 @@
       <c r="K29" s="7">
         <v>1.3260000000000001</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="7">
+        <v>2.0049999999999999</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -3713,7 +3753,7 @@
         <v>113.83000000000004</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" ref="H30:K30" si="23">H28-H29</f>
+        <f t="shared" ref="H30:L30" si="23">H28-H29</f>
         <v>133.16800000000018</v>
       </c>
       <c r="I30" s="7">
@@ -3728,7 +3768,10 @@
         <f t="shared" si="23"/>
         <v>80.412999999999869</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="7">
+        <f t="shared" si="23"/>
+        <v>141.38300000000004</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -3788,7 +3831,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="75">
-        <f t="shared" ref="C32:K32" si="25">C30/C33</f>
+        <f t="shared" ref="C32:L32" si="25">C30/C33</f>
         <v>0.33426796304514361</v>
       </c>
       <c r="D32" s="75">
@@ -3823,7 +3866,10 @@
         <f t="shared" si="25"/>
         <v>1.6339456252285909</v>
       </c>
-      <c r="L32" s="75"/>
+      <c r="L32" s="75">
+        <f t="shared" si="25"/>
+        <v>2.9733543638275508</v>
+      </c>
       <c r="M32" s="75"/>
       <c r="N32" s="75"/>
       <c r="O32" s="7"/>
@@ -3887,7 +3933,9 @@
       <c r="K33" s="7">
         <v>49.213999999999999</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="7">
+        <v>47.55</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>

--- a/ANF.xlsx
+++ b/ANF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDC0565-716A-49E5-8807-54E785F3BD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60C5C53-CDBA-461F-9B9C-381D2B9059F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{5386E427-DDBF-4556-BEE6-790EAB42F0A7}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5386E427-DDBF-4556-BEE6-790EAB42F0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1060,13 +1060,19 @@
     <numFmt numFmtId="170" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="171" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1398,133 +1404,136 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1864,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC40C0-B144-4655-82AF-8123A26C51E9}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1891,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>96.69</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1899,10 +1908,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>47.55</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>304</v>
+        <v>46.841999999999999</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1917,7 +1926,7 @@
       </c>
       <c r="I4" s="5">
         <f>I2*I3</f>
-        <v>4597.6094999999996</v>
+        <v>4576.4633999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1931,11 +1940,11 @@
         <v>5</v>
       </c>
       <c r="I5" s="5">
-        <f>572.73+30.795</f>
-        <v>603.52499999999998</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>304</v>
+        <f>605.783+25.255</f>
+        <v>631.03800000000001</v>
+      </c>
+      <c r="J5" s="82" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1945,8 +1954,8 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>304</v>
+      <c r="J6" s="82" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1955,7 +1964,7 @@
       </c>
       <c r="I7" s="5">
         <f>I4+I6-I5</f>
-        <v>3994.0844999999995</v>
+        <v>3945.4253999999996</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2096,11 +2105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2C5BFC-961F-4D88-9AA3-E79ECCFC9F4B}">
   <dimension ref="A1:AL248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2396,9 @@
       <c r="L8" s="3">
         <v>974.2</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>1057.4480000000001</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2447,7 +2458,9 @@
       <c r="L9" s="3">
         <v>197.21</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>194.51</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2507,7 +2520,9 @@
       <c r="L10" s="3">
         <v>37.15</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>38.661000000000001</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2569,9 +2584,11 @@
         <v>547.947</v>
       </c>
       <c r="L11" s="3">
-        <v>55.868000000000002</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>551.86799999999994</v>
+      </c>
+      <c r="M11" s="3">
+        <v>617.34500000000003</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
@@ -2741,7 +2758,9 @@
       <c r="L14" s="3">
         <v>656.69200000000001</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>673.274</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
@@ -2916,7 +2935,9 @@
       <c r="L17" s="24">
         <v>1208.56</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="24">
+        <v>1290.6189999999999</v>
+      </c>
       <c r="N17" s="24"/>
       <c r="O17" s="3"/>
       <c r="P17" s="24">
@@ -2981,7 +3002,9 @@
       <c r="L18" s="3">
         <v>451.59</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>483.67</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3">
@@ -3031,7 +3054,7 @@
         <v>677.45699999999999</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" ref="H19:L19" si="3">H17-H18</f>
+        <f t="shared" ref="H19:M19" si="3">H17-H18</f>
         <v>736.26200000000017</v>
       </c>
       <c r="I19" s="3">
@@ -3050,7 +3073,10 @@
         <f t="shared" si="3"/>
         <v>756.97</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3">
+        <f t="shared" si="3"/>
+        <v>806.94899999999984</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3">
@@ -3117,7 +3143,9 @@
       <c r="L20" s="3">
         <v>375.35599999999999</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>459.548</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3">
@@ -3176,7 +3204,9 @@
       <c r="L21" s="3">
         <v>175.32499999999999</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>193.40199999999999</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
@@ -3235,7 +3265,9 @@
       <c r="L22" s="3">
         <v>0.36899999999999999</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>1.022</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3">
@@ -3288,7 +3320,7 @@
         <v>129.84900000000002</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23:L23" si="12">H19-H20-H21+H22</f>
+        <f t="shared" ref="H23:M23" si="12">H19-H20-H21+H22</f>
         <v>175.62500000000017</v>
       </c>
       <c r="I23" s="3">
@@ -3307,7 +3339,10 @@
         <f t="shared" si="12"/>
         <v>206.65800000000004</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <f t="shared" si="12"/>
+        <v>155.02099999999984</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3">
@@ -3373,7 +3408,9 @@
       <c r="L24" s="3">
         <v>0.62</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3">
@@ -3432,7 +3469,9 @@
       <c r="L25" s="3">
         <v>3.0939999999999999</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>6.4909999999999997</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3">
@@ -3482,7 +3521,7 @@
         <v>134.85200000000003</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" ref="H26:L26" si="16">H23-H24+H25</f>
+        <f t="shared" ref="H26:M26" si="16">H23-H24+H25</f>
         <v>180.82800000000017</v>
       </c>
       <c r="I26" s="3">
@@ -3501,7 +3540,10 @@
         <f t="shared" si="16"/>
         <v>209.13200000000003</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <f t="shared" si="16"/>
+        <v>160.96199999999982</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3">
@@ -3567,7 +3609,9 @@
       <c r="L27" s="3">
         <v>65.744</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>45.862000000000002</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3">
@@ -3617,7 +3661,7 @@
         <v>115.05800000000004</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:L28" si="20">H26-H27</f>
+        <f t="shared" ref="H28:M28" si="20">H26-H27</f>
         <v>135.37900000000019</v>
       </c>
       <c r="I28" s="3">
@@ -3636,7 +3680,10 @@
         <f t="shared" si="20"/>
         <v>143.38800000000003</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3">
+        <f t="shared" si="20"/>
+        <v>115.09999999999982</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3">
@@ -3702,7 +3749,9 @@
       <c r="L29" s="3">
         <v>2.0049999999999999</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>2.105</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3">
@@ -3752,7 +3801,7 @@
         <v>113.83000000000004</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" ref="H30:L30" si="23">H28-H29</f>
+        <f t="shared" ref="H30:M30" si="23">H28-H29</f>
         <v>133.16800000000018</v>
       </c>
       <c r="I30" s="3">
@@ -3771,7 +3820,10 @@
         <f t="shared" si="23"/>
         <v>141.38300000000004</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <f t="shared" si="23"/>
+        <v>112.99499999999982</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3">
@@ -3830,7 +3882,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="25">
-        <f t="shared" ref="C32:L32" si="25">C30/C33</f>
+        <f t="shared" ref="C32:M32" si="25">C30/C33</f>
         <v>0.33426796304514361</v>
       </c>
       <c r="D32" s="25">
@@ -3869,7 +3921,10 @@
         <f t="shared" si="25"/>
         <v>2.9733543638275508</v>
       </c>
-      <c r="M32" s="25"/>
+      <c r="M32" s="25">
+        <f t="shared" si="25"/>
+        <v>2.4122582297937711</v>
+      </c>
       <c r="N32" s="25"/>
       <c r="O32" s="3"/>
       <c r="P32" s="25">
@@ -3935,7 +3990,9 @@
       <c r="L33" s="3">
         <v>47.55</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="3">
+        <v>46.841999999999999</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3">
@@ -12428,106 +12485,106 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B69" s="73"/>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="75"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="79"/>
     </row>
     <row r="70" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="76"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="76"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="77"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="76"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="76"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="76"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="76"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="77"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B77" s="81"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
